--- a/Charts/scores.xlsx
+++ b/Charts/scores.xlsx
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,2450 +383,6994 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>42521</v>
+        <v>39605</v>
       </c>
       <c r="B2">
-        <v>0.6569226555692097</v>
+        <v>0.6277029934631414</v>
       </c>
       <c r="C2" s="1">
-        <v>42163</v>
+        <v>41944</v>
       </c>
       <c r="D2">
-        <v>0.6519596988471016</v>
+        <v>0.7110820962559806</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>41611</v>
+        <v>39517</v>
       </c>
       <c r="B3">
-        <v>0.7680884822188655</v>
+        <v>0.6089303320264541</v>
       </c>
       <c r="C3" s="1">
-        <v>42316</v>
+        <v>41579</v>
       </c>
       <c r="D3">
-        <v>0.6824774982549895</v>
+        <v>0.6771734854204063</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>41590</v>
+        <v>41198</v>
       </c>
       <c r="B4">
-        <v>0.7264072648398998</v>
+        <v>0.6870929763820465</v>
       </c>
       <c r="C4" s="1">
-        <v>41951</v>
+        <v>40299</v>
       </c>
       <c r="D4">
-        <v>0.663453098271259</v>
+        <v>0.696611045160908</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>42808</v>
+        <v>39492</v>
       </c>
       <c r="B5">
-        <v>0.646734165342685</v>
+        <v>0.6349012519155509</v>
       </c>
       <c r="C5" s="1">
-        <v>41586</v>
+        <v>39904</v>
       </c>
       <c r="D5">
-        <v>0.6765998667174535</v>
+        <v>0.698260129295986</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>42332</v>
+        <v>40211</v>
       </c>
       <c r="B6">
-        <v>0.6824774982549895</v>
+        <v>0.7098541584540002</v>
       </c>
       <c r="C6" s="1">
-        <v>41890</v>
+        <v>40909</v>
       </c>
       <c r="D6">
-        <v>0.6207026132692334</v>
+        <v>0.705947917728292</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>41338</v>
+        <v>39664</v>
       </c>
       <c r="B7">
-        <v>0.6645881065354257</v>
+        <v>0.6660887424086368</v>
       </c>
       <c r="C7" s="1">
-        <v>41859</v>
+        <v>42795</v>
       </c>
       <c r="D7">
-        <v>0.7377846179765103</v>
+        <v>0.697765655523346</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>41926</v>
+        <v>40049</v>
       </c>
       <c r="B8">
-        <v>0.7250854334051009</v>
+        <v>0.7163488042173587</v>
       </c>
       <c r="C8" s="1">
-        <v>42102</v>
+        <v>42522</v>
       </c>
       <c r="D8">
-        <v>0.7413448017092269</v>
+        <v>0.6464390357454276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>42731</v>
+        <v>42157</v>
       </c>
       <c r="B9">
-        <v>0.6848177962019824</v>
+        <v>0.6942107862025055</v>
       </c>
       <c r="C9" s="1">
-        <v>41798</v>
+        <v>40634</v>
       </c>
       <c r="D9">
-        <v>0.7431724685464136</v>
+        <v>0.6759373815636721</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>43074</v>
+        <v>42150</v>
       </c>
       <c r="B10">
-        <v>0.6366893565009638</v>
+        <v>0.6720288796354349</v>
       </c>
       <c r="C10" s="1">
-        <v>42498</v>
+        <v>41821</v>
       </c>
       <c r="D10">
-        <v>0.6569226555692097</v>
+        <v>0.730301063473441</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>42892</v>
+        <v>39450</v>
       </c>
       <c r="B11">
-        <v>0.6442295977179335</v>
+        <v>0.6923216762762125</v>
       </c>
       <c r="C11" s="1">
-        <v>41616</v>
+        <v>40057</v>
       </c>
       <c r="D11">
-        <v>0.7225469330760531</v>
+        <v>0.7298794464435211</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>41723</v>
+        <v>42465</v>
       </c>
       <c r="B12">
-        <v>0.5841087002001577</v>
+        <v>0.6997904457145977</v>
       </c>
       <c r="C12" s="1">
-        <v>42559</v>
+        <v>40422</v>
       </c>
       <c r="D12">
-        <v>0.7356672306171231</v>
+        <v>0.6829608232437553</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>42437</v>
+        <v>41156</v>
       </c>
       <c r="B13">
-        <v>0.610190901296614</v>
+        <v>0.6905597728438509</v>
       </c>
       <c r="C13" s="1">
-        <v>42012</v>
+        <v>41426</v>
       </c>
       <c r="D13">
-        <v>0.6492791626004607</v>
+        <v>0.7213543191486623</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>42157</v>
+        <v>40981</v>
       </c>
       <c r="B14">
-        <v>0.64668174041159</v>
+        <v>0.6785675205483336</v>
       </c>
       <c r="C14" s="1">
-        <v>42346</v>
+        <v>39539</v>
       </c>
       <c r="D14">
-        <v>0.6878651725749189</v>
+        <v>0.5963659962045554</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>42472</v>
+        <v>41730</v>
       </c>
       <c r="B15">
-        <v>0.7116247495068152</v>
+        <v>0.6976964519247523</v>
       </c>
       <c r="C15" s="1">
-        <v>42529</v>
+        <v>42064</v>
       </c>
       <c r="D15">
-        <v>0.7033015841199878</v>
+        <v>0.6989991439932449</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>42465</v>
+        <v>39648</v>
       </c>
       <c r="B16">
-        <v>0.7022686570707937</v>
+        <v>0.6291156927023894</v>
       </c>
       <c r="C16" s="1">
-        <v>41433</v>
+        <v>42917</v>
       </c>
       <c r="D16">
-        <v>0.5749486033930213</v>
+        <v>0.6845650912536049</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>42150</v>
+        <v>42997</v>
       </c>
       <c r="B17">
-        <v>0.7427383618847421</v>
+        <v>0.6918535059985264</v>
       </c>
       <c r="C17" s="1">
-        <v>41494</v>
+        <v>42644</v>
       </c>
       <c r="D17">
-        <v>0.7473045905800282</v>
+        <v>0.6927792357421989</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>42612</v>
+        <v>42661</v>
       </c>
       <c r="B18">
-        <v>0.6240145013768331</v>
+        <v>0.6917257380615177</v>
       </c>
       <c r="C18" s="1">
-        <v>41463</v>
+        <v>40575</v>
       </c>
       <c r="D18">
-        <v>0.7069066671692239</v>
+        <v>0.6963993458661204</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>42276</v>
+        <v>39612</v>
       </c>
       <c r="B19">
-        <v>0.6345610545340595</v>
+        <v>0.6892194280034987</v>
       </c>
       <c r="C19" s="1">
-        <v>41525</v>
+        <v>41699</v>
       </c>
       <c r="D19">
-        <v>0.619885290708389</v>
+        <v>0.7016410178640982</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>41821</v>
+        <v>39685</v>
       </c>
       <c r="B20">
-        <v>0.6515929453050627</v>
+        <v>0.661797421397462</v>
       </c>
       <c r="C20" s="1">
-        <v>41828</v>
+        <v>41306</v>
       </c>
       <c r="D20">
-        <v>0.7056208474358152</v>
+        <v>0.6734406155519453</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>42997</v>
+        <v>39510</v>
       </c>
       <c r="B21">
-        <v>0.5755799679772153</v>
+        <v>0.6429057343669193</v>
       </c>
       <c r="C21" s="1">
-        <v>41555</v>
+        <v>42186</v>
       </c>
       <c r="D21">
-        <v>0.5891765793796149</v>
+        <v>0.7002764755381433</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>42661</v>
+        <v>39699</v>
       </c>
       <c r="B22">
-        <v>0.629422570316978</v>
+        <v>0.7031014609256231</v>
       </c>
       <c r="C22" s="1">
-        <v>41767</v>
+        <v>39692</v>
       </c>
       <c r="D22">
-        <v>0.7068916740064726</v>
+        <v>0.6545116935820888</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>42738</v>
+        <v>41282</v>
       </c>
       <c r="B23">
-        <v>0.7330188444884792</v>
+        <v>0.6737225216348431</v>
       </c>
       <c r="C23" s="1">
-        <v>41282</v>
+        <v>41214</v>
       </c>
       <c r="D23">
-        <v>0.6956168992557527</v>
+        <v>0.6932307732158397</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>42136</v>
+        <v>39577</v>
       </c>
       <c r="B24">
-        <v>0.6691014037218436</v>
+        <v>0.6849621546082674</v>
       </c>
       <c r="C24" s="1">
-        <v>42774</v>
+        <v>43040</v>
       </c>
       <c r="D24">
-        <v>0.6650388543163518</v>
+        <v>0.6544504251532783</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>41870</v>
+        <v>39643</v>
       </c>
       <c r="B25">
-        <v>0.5864284889564217</v>
+        <v>0.642379954959689</v>
       </c>
       <c r="C25" s="1">
-        <v>41737</v>
+        <v>41913</v>
       </c>
       <c r="D25">
-        <v>0.7637775558954696</v>
+        <v>0.746534333960457</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>41282</v>
+        <v>39483</v>
       </c>
       <c r="B26">
-        <v>0.7340080269854634</v>
+        <v>0.6792265561947408</v>
       </c>
       <c r="C26" s="1">
-        <v>42071</v>
+        <v>39814</v>
       </c>
       <c r="D26">
-        <v>0.7302017768937603</v>
+        <v>0.6596986275449929</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>42381</v>
+        <v>40274</v>
       </c>
       <c r="B27">
-        <v>0.6896518891436907</v>
+        <v>0.7168359926336101</v>
       </c>
       <c r="C27" s="1">
-        <v>41372</v>
+        <v>42430</v>
       </c>
       <c r="D27">
-        <v>0.6604973124685967</v>
+        <v>0.6977243446204971</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>42038</v>
+        <v>41401</v>
       </c>
       <c r="B28">
-        <v>0.6478845716120842</v>
+        <v>0.6824010983274494</v>
       </c>
       <c r="C28" s="1">
-        <v>41678</v>
+        <v>41061</v>
       </c>
       <c r="D28">
-        <v>0.6984410128692715</v>
+        <v>0.7093028068438286</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>41401</v>
+        <v>39966</v>
       </c>
       <c r="B29">
-        <v>0.673023802417635</v>
+        <v>0.666702094360042</v>
       </c>
       <c r="C29" s="1">
-        <v>42621</v>
+        <v>42979</v>
       </c>
       <c r="D29">
-        <v>0.7072051698493358</v>
+        <v>0.697973040658851</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>41513</v>
+        <v>40890</v>
       </c>
       <c r="B30">
-        <v>0.7473045905800282</v>
+        <v>0.6791116212713023</v>
       </c>
       <c r="C30" s="1">
-        <v>42743</v>
+        <v>41852</v>
       </c>
       <c r="D30">
-        <v>0.546309531996694</v>
+        <v>0.7188369178942362</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>41555</v>
+        <v>39691</v>
       </c>
       <c r="B31">
-        <v>0.6943565974034311</v>
+        <v>0.6398776836793489</v>
       </c>
       <c r="C31" s="1">
-        <v>42682</v>
+        <v>40817</v>
       </c>
       <c r="D31">
-        <v>0.7290775089161624</v>
+        <v>0.7237304115477357</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>41800</v>
+        <v>39571</v>
       </c>
       <c r="B32">
-        <v>0.687809336606237</v>
+        <v>0.6736416427330399</v>
       </c>
       <c r="C32" s="1">
-        <v>41341</v>
+        <v>40452</v>
       </c>
       <c r="D32">
-        <v>0.6631109084624741</v>
+        <v>0.7006736932385742</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>41625</v>
+        <v>41051</v>
       </c>
       <c r="B33">
-        <v>0.6187404361004675</v>
+        <v>0.7186750585980624</v>
       </c>
       <c r="C33" s="1">
-        <v>42802</v>
+        <v>39934</v>
       </c>
       <c r="D33">
-        <v>0.6091767735424645</v>
+        <v>0.713609699956781</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>41968</v>
+        <v>39455</v>
       </c>
       <c r="B34">
-        <v>0.663453098271259</v>
+        <v>0.779748438865179</v>
       </c>
       <c r="C34" s="1">
-        <v>42651</v>
+        <v>42552</v>
       </c>
       <c r="D34">
-        <v>0.7756178290353026</v>
+        <v>0.6809126090433721</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>41688</v>
+        <v>40974</v>
       </c>
       <c r="B35">
-        <v>0.6305400028636154</v>
+        <v>0.7045639378776291</v>
       </c>
       <c r="C35" s="1">
-        <v>42043</v>
+        <v>41456</v>
       </c>
       <c r="D35">
-        <v>0.6698187646372949</v>
+        <v>0.7183292662768762</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>41772</v>
+        <v>39649</v>
       </c>
       <c r="B36">
-        <v>0.6967301597784866</v>
+        <v>0.6410611454218721</v>
       </c>
       <c r="C36" s="1">
-        <v>42712</v>
+        <v>41548</v>
       </c>
       <c r="D36">
-        <v>0.6848177962019824</v>
+        <v>0.6980922357773364</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>42717</v>
+        <v>41681</v>
       </c>
       <c r="B37">
-        <v>0.7369706789607274</v>
+        <v>0.652226344981307</v>
       </c>
       <c r="C37" s="1">
-        <v>41706</v>
+        <v>40940</v>
       </c>
       <c r="D37">
-        <v>0.5841087002001577</v>
+        <v>0.6791841478973178</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>41681</v>
+        <v>42941</v>
       </c>
       <c r="B38">
-        <v>0.6733730939088683</v>
+        <v>0.6845650912536049</v>
       </c>
       <c r="C38" s="1">
-        <v>43077</v>
+        <v>40026</v>
       </c>
       <c r="D38">
-        <v>0.7730262840857649</v>
+        <v>0.7163488042173587</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>42941</v>
+        <v>42227</v>
       </c>
       <c r="B39">
-        <v>0.6232579626894371</v>
+        <v>0.7045730364395024</v>
       </c>
       <c r="C39" s="1">
-        <v>42224</v>
+        <v>39448</v>
       </c>
       <c r="D39">
-        <v>0.6180283071262735</v>
+        <v>0.6033729772088239</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>41457</v>
+        <v>39619</v>
       </c>
       <c r="B40">
-        <v>0.7263507756728165</v>
+        <v>0.6754682393940017</v>
       </c>
       <c r="C40" s="1">
-        <v>41647</v>
+        <v>40725</v>
       </c>
       <c r="D40">
-        <v>0.7450433194150691</v>
+        <v>0.7436939600942829</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>42227</v>
+        <v>39535</v>
       </c>
       <c r="B41">
-        <v>0.6146442784872405</v>
+        <v>0.6377654741176925</v>
       </c>
       <c r="C41" s="1">
-        <v>42590</v>
+        <v>41730</v>
       </c>
       <c r="D41">
-        <v>0.6240145013768331</v>
+        <v>0.7460066655862458</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>41478</v>
+        <v>39692</v>
       </c>
       <c r="B42">
-        <v>0.6214625888388735</v>
+        <v>0.660633970318558</v>
       </c>
       <c r="C42" s="1">
-        <v>41313</v>
+        <v>41334</v>
       </c>
       <c r="D42">
-        <v>0.7684770458014135</v>
+        <v>0.6769259325122028</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41296</v>
+        <v>41289</v>
       </c>
       <c r="B43">
-        <v>0.7463204122493914</v>
+        <v>0.6683155938416775</v>
       </c>
       <c r="C43" s="1">
-        <v>41402</v>
+        <v>39661</v>
       </c>
       <c r="D43">
-        <v>0.6229403963118411</v>
+        <v>0.6398776836793489</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42143</v>
+        <v>40953</v>
       </c>
       <c r="B44">
-        <v>0.6748136271462712</v>
+        <v>0.662697246412621</v>
       </c>
       <c r="C44" s="1">
-        <v>42833</v>
+        <v>39569</v>
       </c>
       <c r="D44">
-        <v>0.6173698011057647</v>
+        <v>0.6627779041723612</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>41289</v>
+        <v>40666</v>
       </c>
       <c r="B45">
-        <v>0.6225703845096703</v>
+        <v>0.732675562513437</v>
       </c>
       <c r="C45" s="1">
-        <v>42193</v>
+        <v>40603</v>
       </c>
       <c r="D45">
-        <v>0.6024332770651848</v>
+        <v>0.688274064245982</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>42374</v>
+        <v>39506</v>
       </c>
       <c r="B46">
-        <v>0.6806787411698385</v>
+        <v>0.734614042039598</v>
       </c>
       <c r="C46" s="1">
-        <v>42132</v>
+        <v>42095</v>
       </c>
       <c r="D46">
-        <v>0.7427383618847421</v>
+        <v>0.6843532946900741</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>42080</v>
+        <v>41408</v>
       </c>
       <c r="B47">
-        <v>0.7313859274443433</v>
+        <v>0.6501967210592565</v>
       </c>
       <c r="C47" s="1">
-        <v>43047</v>
+        <v>42826</v>
       </c>
       <c r="D47">
-        <v>0.595922212135094</v>
+        <v>0.6850199774349023</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>41408</v>
+        <v>40673</v>
       </c>
       <c r="B48">
-        <v>0.7323665879059381</v>
+        <v>0.6978160695617394</v>
       </c>
       <c r="C48" s="1">
-        <v>42863</v>
+        <v>40238</v>
       </c>
       <c r="D48">
-        <v>0.6372801911851695</v>
+        <v>0.6598503621401562</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>42416</v>
+        <v>39868</v>
       </c>
       <c r="B49">
-        <v>0.7244716309418211</v>
+        <v>0.6889598450019556</v>
       </c>
       <c r="C49" s="1">
-        <v>42986</v>
+        <v>41183</v>
       </c>
       <c r="D49">
-        <v>0.7028247521497526</v>
+        <v>0.6687562540356171</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>42906</v>
+        <v>41044</v>
       </c>
       <c r="B50">
-        <v>0.5920170174777987</v>
+        <v>0.6738510355583343</v>
       </c>
       <c r="C50" s="1">
-        <v>41981</v>
+        <v>39845</v>
       </c>
       <c r="D50">
-        <v>0.517423470738716</v>
+        <v>0.657514531943587</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>41653</v>
+        <v>39658</v>
       </c>
       <c r="B51">
-        <v>0.7060205642293195</v>
+        <v>0.5699947863206626</v>
       </c>
       <c r="C51" s="1">
-        <v>42255</v>
+        <v>39783</v>
       </c>
       <c r="D51">
-        <v>0.6345610545340595</v>
+        <v>0.6777250744417774</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>42430</v>
+        <v>41961</v>
       </c>
       <c r="B52">
-        <v>0.6231824449529941</v>
+        <v>0.7117246759089136</v>
       </c>
       <c r="C52" s="1">
-        <v>42894</v>
+        <v>41091</v>
       </c>
       <c r="D52">
-        <v>0.6313261369886903</v>
+        <v>0.6944318298908907</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>41450</v>
+        <v>39587</v>
       </c>
       <c r="B53">
-        <v>0.5749486033930213</v>
+        <v>0.6099702270418317</v>
       </c>
       <c r="C53" s="1">
-        <v>41920</v>
+        <v>42217</v>
       </c>
       <c r="D53">
-        <v>0.7137628578088221</v>
+        <v>0.6812468355255041</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>41996</v>
+        <v>39626</v>
       </c>
       <c r="B54">
-        <v>0.7258905669821053</v>
+        <v>0.6795128900212086</v>
       </c>
       <c r="C54" s="1">
-        <v>42377</v>
+        <v>42948</v>
       </c>
       <c r="D54">
-        <v>0.6268923440935282</v>
+        <v>0.6236119174995427</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>41765</v>
+        <v>40162</v>
       </c>
       <c r="B55">
-        <v>0.7487421024125256</v>
+        <v>0.6776795058262199</v>
       </c>
       <c r="C55" s="1">
-        <v>42285</v>
+        <v>42461</v>
       </c>
       <c r="D55">
-        <v>0.7066547300127269</v>
+        <v>0.6470501598228788</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>41835</v>
+        <v>39528</v>
       </c>
       <c r="B56">
-        <v>0.7530800816384442</v>
+        <v>0.6467172982018299</v>
       </c>
       <c r="C56" s="1">
-        <v>42437</v>
+        <v>40360</v>
       </c>
       <c r="D56">
-        <v>0.6054397188875477</v>
+        <v>0.6854663250050674</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>41506</v>
+        <v>42528</v>
       </c>
       <c r="B57">
-        <v>0.7065176800279668</v>
+        <v>0.6834680464961234</v>
       </c>
       <c r="C57" s="1">
-        <v>43016</v>
+        <v>41883</v>
       </c>
       <c r="D57">
-        <v>0.67681990159216</v>
+        <v>0.7002316208719834</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>41660</v>
+        <v>40078</v>
       </c>
       <c r="B58">
-        <v>0.7579177192377183</v>
+        <v>0.7101889621132123</v>
       </c>
       <c r="C58" s="1">
-        <v>42408</v>
+        <v>40118</v>
       </c>
       <c r="D58">
-        <v>0.7324151241088976</v>
+        <v>0.6969000255289826</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>43004</v>
+        <v>39480</v>
       </c>
       <c r="B59">
-        <v>0.7028247521497526</v>
+        <v>0.7729514399622586</v>
       </c>
       <c r="C59" s="1">
-        <v>42924</v>
+        <v>39965</v>
       </c>
       <c r="D59">
-        <v>0.6232579626894371</v>
+        <v>0.6900812252157481</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>41912</v>
+        <v>39505</v>
       </c>
       <c r="B60">
-        <v>0.6207026132692334</v>
+        <v>0.5841238871494197</v>
       </c>
       <c r="C60" s="1">
-        <v>42955</v>
+        <v>40848</v>
       </c>
       <c r="D60">
-        <v>0.5015741537649527</v>
+        <v>0.7169818214822385</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>42528</v>
+        <v>40091</v>
       </c>
       <c r="B61">
-        <v>0.7118408067672931</v>
+        <v>0.6764574871708635</v>
       </c>
       <c r="C61" s="1">
-        <v>42468</v>
+        <v>40969</v>
       </c>
       <c r="D61">
-        <v>0.606392610525103</v>
+        <v>0.7133353276278087</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>41877</v>
+        <v>40190</v>
       </c>
       <c r="B62">
-        <v>0.7377846179765103</v>
+        <v>0.6862834570096363</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42005</v>
+      </c>
+      <c r="D62">
+        <v>0.7051740916508917</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>42087</v>
+        <v>39980</v>
       </c>
       <c r="B63">
-        <v>0.6243808103152481</v>
+        <v>0.6542760355942414</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42339</v>
+      </c>
+      <c r="D63">
+        <v>0.7022899565963362</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>41793</v>
+        <v>39677</v>
       </c>
       <c r="B64">
-        <v>0.6105324220669548</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.6990028339889381</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43070</v>
+      </c>
+      <c r="D64">
+        <v>0.6603187750684085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>41345</v>
+        <v>39585</v>
       </c>
       <c r="B65">
-        <v>0.7092350127954749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.6953717259264987</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42583</v>
+      </c>
+      <c r="D65">
+        <v>0.6896565017119562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>42024</v>
+        <v>42577</v>
       </c>
       <c r="B66">
-        <v>0.6648176875592422</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.6809126090433721</v>
+      </c>
+      <c r="C66" s="1">
+        <v>41518</v>
+      </c>
+      <c r="D66">
+        <v>0.7023990971974006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>41548</v>
+        <v>39565</v>
       </c>
       <c r="B67">
-        <v>0.6138890348850267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.6686047695658814</v>
+      </c>
+      <c r="C67" s="1">
+        <v>40695</v>
+      </c>
+      <c r="D67">
+        <v>0.699632731223761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>41394</v>
+        <v>39466</v>
       </c>
       <c r="B68">
-        <v>0.6604973124685967</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.6884468497249256</v>
+      </c>
+      <c r="C68" s="1">
+        <v>40483</v>
+      </c>
+      <c r="D68">
+        <v>0.7157787316882008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>41520</v>
+        <v>42927</v>
       </c>
       <c r="B69">
-        <v>0.7715166116978935</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.6663920224108956</v>
+      </c>
+      <c r="C69" s="1">
+        <v>41760</v>
+      </c>
+      <c r="D69">
+        <v>0.6823268929198998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>42962</v>
+        <v>40063</v>
       </c>
       <c r="B70">
-        <v>0.7162205524363888</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.7775812464937659</v>
+      </c>
+      <c r="C70" s="1">
+        <v>39479</v>
+      </c>
+      <c r="D70">
+        <v>0.6009797388031983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>42794</v>
+        <v>42241</v>
       </c>
       <c r="B71">
-        <v>0.6650388543163518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.6812468355255041</v>
+      </c>
+      <c r="C71" s="1">
+        <v>41365</v>
+      </c>
+      <c r="D71">
+        <v>0.7068992277099775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>42927</v>
+        <v>40750</v>
       </c>
       <c r="B72">
-        <v>0.5290470486645781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.7436939600942829</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D72">
+        <v>0.6806032673183741</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>42724</v>
+        <v>41485</v>
       </c>
       <c r="B73">
-        <v>0.5750012018524568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.7183292662768762</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42125</v>
+      </c>
+      <c r="D73">
+        <v>0.6720288796354349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>42423</v>
+        <v>41303</v>
       </c>
       <c r="B74">
-        <v>0.7324151241088976</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.6739850589829626</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42705</v>
+      </c>
+      <c r="D74">
+        <v>0.7059671512731714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>42241</v>
+        <v>39563</v>
       </c>
       <c r="B75">
-        <v>0.6180283071262735</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.5963659962045554</v>
+      </c>
+      <c r="C75" s="1">
+        <v>40210</v>
+      </c>
+      <c r="D75">
+        <v>0.6502302668634252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>41730</v>
+        <v>39496</v>
       </c>
       <c r="B76">
-        <v>0.7860896178740854</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.6346138087282283</v>
+      </c>
+      <c r="C76" s="1">
+        <v>41640</v>
+      </c>
+      <c r="D76">
+        <v>0.7160399864626457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>41464</v>
+        <v>40112</v>
       </c>
       <c r="B77">
-        <v>0.6834987590649034</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.7262159086970644</v>
+      </c>
+      <c r="C77" s="1">
+        <v>39873</v>
+      </c>
+      <c r="D77">
+        <v>0.6878278616134264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>41905</v>
+        <v>41114</v>
       </c>
       <c r="B78">
-        <v>0.6706346246127087</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.6983941562062406</v>
+      </c>
+      <c r="C78" s="1">
+        <v>39600</v>
+      </c>
+      <c r="D78">
+        <v>0.6795128900212086</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>42773</v>
+        <v>39598</v>
       </c>
       <c r="B79">
-        <v>0.5675309142379793</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.6627779041723612</v>
+      </c>
+      <c r="C79" s="1">
+        <v>41000</v>
+      </c>
+      <c r="D79">
+        <v>0.7277586546356091</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>41443</v>
+        <v>40147</v>
       </c>
       <c r="B80">
-        <v>0.6900645572169728</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.6969000255289826</v>
+      </c>
+      <c r="C80" s="1">
+        <v>41153</v>
+      </c>
+      <c r="D80">
+        <v>0.6808492646193535</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>41485</v>
+        <v>42304</v>
       </c>
       <c r="B81">
-        <v>0.7069066671692239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.6613103432225163</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42856</v>
+      </c>
+      <c r="D81">
+        <v>0.6649703031243255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>41303</v>
+        <v>39529</v>
       </c>
       <c r="B82">
-        <v>0.6956168992557527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.6682139606392133</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42248</v>
+      </c>
+      <c r="D82">
+        <v>0.6933498639186068</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>41597</v>
+        <v>39556</v>
       </c>
       <c r="B83">
-        <v>0.6878116685315913</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.6874373713180336</v>
+      </c>
+      <c r="C83" s="1">
+        <v>39753</v>
+      </c>
+      <c r="D83">
+        <v>0.6637630075421354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>41352</v>
+        <v>40035</v>
       </c>
       <c r="B84">
-        <v>0.7297677232219052</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.7269702248867254</v>
+      </c>
+      <c r="C84" s="1">
+        <v>40878</v>
+      </c>
+      <c r="D84">
+        <v>0.6043126829930444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>42346</v>
+        <v>39924</v>
       </c>
       <c r="B85">
-        <v>0.7609557725867632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.7046855860725317</v>
+      </c>
+      <c r="C85" s="1">
+        <v>41974</v>
+      </c>
+      <c r="D85">
+        <v>0.7357234541949668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>42850</v>
+        <v>39464</v>
       </c>
       <c r="B86">
-        <v>0.6173698011057647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.6709014947373733</v>
+      </c>
+      <c r="C86" s="1">
+        <v>40330</v>
+      </c>
+      <c r="D86">
+        <v>0.7143611692876456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>42577</v>
+        <v>40070</v>
       </c>
       <c r="B87">
-        <v>0.7356672306171231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.6243907209126008</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D87">
+        <v>0.7158756981183882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>41646</v>
+        <v>40259</v>
       </c>
       <c r="B88">
-        <v>0.5671266030429896</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.6700736824130261</v>
+      </c>
+      <c r="C88" s="1">
+        <v>39995</v>
+      </c>
+      <c r="D88">
+        <v>0.6725260624977839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>41527</v>
+        <v>42542</v>
       </c>
       <c r="B89">
-        <v>0.7088834495661555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.6951045791696125</v>
+      </c>
+      <c r="C89" s="1">
+        <v>41609</v>
+      </c>
+      <c r="D89">
+        <v>0.7241051861864317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>42192</v>
+        <v>42640</v>
       </c>
       <c r="B90">
-        <v>0.6533151525822221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.6774750902081704</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42309</v>
+      </c>
+      <c r="D90">
+        <v>0.7095916116193962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>42304</v>
+        <v>41142</v>
       </c>
       <c r="B91">
-        <v>0.7066547300127269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.681007192255165</v>
+      </c>
+      <c r="C91" s="1">
+        <v>40664</v>
+      </c>
+      <c r="D91">
+        <v>0.6778637164238804</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>41947</v>
+        <v>43095</v>
       </c>
       <c r="B92">
-        <v>0.6733086005753232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.6603187750684085</v>
+      </c>
+      <c r="C92" s="1">
+        <v>40756</v>
+      </c>
+      <c r="D92">
+        <v>0.6682960384906188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>42955</v>
+        <v>41821</v>
       </c>
       <c r="B93">
-        <v>0.5916881617919814</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.7015877544696046</v>
+      </c>
+      <c r="C93" s="1">
+        <v>40269</v>
+      </c>
+      <c r="D93">
+        <v>0.7132643866344618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>42787</v>
+        <v>39768</v>
       </c>
       <c r="B94">
-        <v>0.6554428732172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.6680612349231897</v>
+      </c>
+      <c r="C94" s="1">
+        <v>41791</v>
+      </c>
+      <c r="D94">
+        <v>0.6996024620886772</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>42094</v>
+        <v>40288</v>
       </c>
       <c r="B95">
-        <v>0.7302017768937603</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.7156248906757456</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42491</v>
+      </c>
+      <c r="D95">
+        <v>0.6080392826830801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>41492</v>
+        <v>40224</v>
       </c>
       <c r="B96">
-        <v>0.6323202093989559</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.7467816752623896</v>
+      </c>
+      <c r="C96" s="1">
+        <v>40087</v>
+      </c>
+      <c r="D96">
+        <v>0.7262159086970644</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>42262</v>
+        <v>42297</v>
       </c>
       <c r="B97">
-        <v>0.6839893291761672</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.7102501943609455</v>
+      </c>
+      <c r="C97" s="1">
+        <v>41487</v>
+      </c>
+      <c r="D97">
+        <v>0.700119156863083</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>42745</v>
+        <v>40904</v>
       </c>
       <c r="B98">
-        <v>0.6085203799204407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.7028895124243706</v>
+      </c>
+      <c r="C98" s="1">
+        <v>41244</v>
+      </c>
+      <c r="D98">
+        <v>0.7006971974769162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>41429</v>
+        <v>39559</v>
       </c>
       <c r="B99">
-        <v>0.6933255228469642</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.6237732730984047</v>
+      </c>
+      <c r="C99" s="1">
+        <v>39508</v>
+      </c>
+      <c r="D99">
+        <v>0.6936988862593447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>42500</v>
+        <v>39469</v>
       </c>
       <c r="B100">
-        <v>0.6573368812809571</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.5052233877368519</v>
+      </c>
+      <c r="C100" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D100">
+        <v>0.7784513653984413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>41975</v>
+        <v>39635</v>
       </c>
       <c r="B101">
-        <v>0.6887245124055543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.6909318846777718</v>
+      </c>
+      <c r="C101" s="1">
+        <v>42767</v>
+      </c>
+      <c r="D101">
+        <v>0.6793689417680215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>42535</v>
+        <v>41471</v>
       </c>
       <c r="B102">
-        <v>0.6808856959328985</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.6903276620260498</v>
+      </c>
+      <c r="C102" s="1">
+        <v>40391</v>
+      </c>
+      <c r="D102">
+        <v>0.6940495974851816</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>41989</v>
+        <v>41569</v>
       </c>
       <c r="B103">
-        <v>0.7564938291552981</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.6888297565440521</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42036</v>
+      </c>
+      <c r="D103">
+        <v>0.6978947872272241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>42640</v>
+        <v>39601</v>
       </c>
       <c r="B104">
-        <v>0.7072051698493358</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.6144160486948638</v>
+      </c>
+      <c r="C104" s="1">
+        <v>41671</v>
+      </c>
+      <c r="D104">
+        <v>0.6901738751818738</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>42843</v>
+        <v>41205</v>
       </c>
       <c r="B105">
-        <v>0.6692488494150616</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>0.6874673058103224</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42614</v>
+      </c>
+      <c r="D105">
+        <v>0.6774750902081704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>41674</v>
+        <v>39895</v>
       </c>
       <c r="B106">
-        <v>0.6814615735450862</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.6887527927284318</v>
+      </c>
+      <c r="C106" s="1">
+        <v>41395</v>
+      </c>
+      <c r="D106">
+        <v>0.721350707425591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>42969</v>
+        <v>41604</v>
       </c>
       <c r="B107">
-        <v>0.661200875639313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.6771734854204063</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42675</v>
+      </c>
+      <c r="D107">
+        <v>0.6805932519703317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>42010</v>
+        <v>39613</v>
       </c>
       <c r="B108">
-        <v>0.6338153950263519</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>0.686905137432936</v>
+      </c>
+      <c r="C108" s="1">
+        <v>41122</v>
+      </c>
+      <c r="D108">
+        <v>0.6650958526651251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>42045</v>
+        <v>39777</v>
       </c>
       <c r="B109">
-        <v>0.7054182173696283</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>0.6710814499707629</v>
+      </c>
+      <c r="C109" s="1">
+        <v>40148</v>
+      </c>
+      <c r="D109">
+        <v>0.6688175594425834</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>41499</v>
+        <v>41422</v>
       </c>
       <c r="B110">
-        <v>0.6725421519016103</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.721350707425591</v>
+      </c>
+      <c r="C110" s="1">
+        <v>39630</v>
+      </c>
+      <c r="D110">
+        <v>0.610783136211639</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>41898</v>
+        <v>42290</v>
       </c>
       <c r="B111">
-        <v>0.688024568127471</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.7002725675003796</v>
+      </c>
+      <c r="C111" s="1">
+        <v>42887</v>
+      </c>
+      <c r="D111">
+        <v>0.6718183412578649</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>41387</v>
+        <v>39776</v>
       </c>
       <c r="B112">
-        <v>0.7042890565911577</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.6441252312948462</v>
+      </c>
+      <c r="C112" s="1">
+        <v>40513</v>
+      </c>
+      <c r="D112">
+        <v>0.7103867173102814</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>42185</v>
+        <v>39867</v>
       </c>
       <c r="B113">
-        <v>0.6519596988471016</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.657514531943587</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42156</v>
+      </c>
+      <c r="D113">
+        <v>0.7185701332227377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>41583</v>
+        <v>40610</v>
       </c>
       <c r="B114">
-        <v>0.6851835975627423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.7232816455767594</v>
+      </c>
+      <c r="C114" s="1">
+        <v>41275</v>
+      </c>
+      <c r="D114">
+        <v>0.6739850589829626</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>42948</v>
+        <v>41058</v>
       </c>
       <c r="B115">
-        <v>0.6638072839110211</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.6852082518328713</v>
+      </c>
+      <c r="C115" s="1">
+        <v>40179</v>
+      </c>
+      <c r="D115">
+        <v>0.6933370160347294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>42129</v>
+        <v>39478</v>
       </c>
       <c r="B116">
-        <v>0.7493508672962341</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.6518241686133718</v>
+      </c>
+      <c r="C116" s="1">
+        <v>39722</v>
+      </c>
+      <c r="D116">
+        <v>0.6555410302057172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>42710</v>
+        <v>40084</v>
       </c>
       <c r="B117">
-        <v>0.6403802459423809</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.7298794464435211</v>
+      </c>
+      <c r="C117" s="1">
+        <v>41030</v>
+      </c>
+      <c r="D117">
+        <v>0.6852082518328713</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>42269</v>
+        <v>39644</v>
       </c>
       <c r="B118">
-        <v>0.707590719280362</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.7243893766961913</v>
+      </c>
+      <c r="C118" s="1">
+        <v>40787</v>
+      </c>
+      <c r="D118">
+        <v>0.6840309267657481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>41562</v>
+        <v>39676</v>
       </c>
       <c r="B119">
-        <v>0.6810615699709726</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.6841619054210439</v>
+      </c>
+      <c r="C119" s="1">
+        <v>43009</v>
+      </c>
+      <c r="D119">
+        <v>0.6672203953698708</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>42591</v>
+        <v>42934</v>
       </c>
       <c r="B120">
-        <v>0.5734754009601122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.6717527751047778</v>
+      </c>
+      <c r="C120" s="1">
+        <v>42401</v>
+      </c>
+      <c r="D120">
+        <v>0.7099309120267159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>41737</v>
+        <v>39608</v>
       </c>
       <c r="B121">
-        <v>0.7259173583543448</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.6401797811960305</v>
+      </c>
+      <c r="C121" s="1">
+        <v>42278</v>
+      </c>
+      <c r="D121">
+        <v>0.6613103432225163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>42493</v>
+        <v>40546</v>
       </c>
       <c r="B122">
-        <v>0.5224887619150801</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.7653429333261496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>41569</v>
+        <v>39514</v>
       </c>
       <c r="B123">
-        <v>0.7934311598302964</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.7143394608544823</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>43088</v>
+        <v>41128</v>
       </c>
       <c r="B124">
-        <v>0.6426179032155469</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.7018062698474099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>42703</v>
+        <v>41233</v>
       </c>
       <c r="B125">
-        <v>0.7290775089161624</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.6996445236507439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>41842</v>
+        <v>39487</v>
       </c>
       <c r="B126">
-        <v>0.6028059098473737</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.6736063194327059</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>41702</v>
+        <v>40210</v>
       </c>
       <c r="B127">
-        <v>0.6539930789463327</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.662673209142438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>43018</v>
+        <v>42283</v>
       </c>
       <c r="B128">
-        <v>0.6074871868866881</v>
+        <v>0.7142849201901033</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>41604</v>
+        <v>41744</v>
       </c>
       <c r="B129">
-        <v>0.6765998667174535</v>
+        <v>0.7142134918514178</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>42857</v>
+        <v>39663</v>
       </c>
       <c r="B130">
-        <v>0.6910867504062002</v>
+        <v>0.707692744894025</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>42339</v>
+        <v>40617</v>
       </c>
       <c r="B131">
-        <v>0.7271307131225244</v>
+        <v>0.6871385242439387</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>41373</v>
+        <v>42318</v>
       </c>
       <c r="B132">
-        <v>0.7098033918605491</v>
+        <v>0.7075907914637741</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>42605</v>
+        <v>39805</v>
       </c>
       <c r="B133">
-        <v>0.7027854418314147</v>
+        <v>0.7220466506392655</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>41422</v>
+        <v>39451</v>
       </c>
       <c r="B134">
-        <v>0.6229403963118411</v>
+        <v>0.7585250537418916</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>42206</v>
+        <v>42563</v>
       </c>
       <c r="B135">
-        <v>0.6764348182629096</v>
+        <v>0.6429266953480071</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>41891</v>
+        <v>41457</v>
       </c>
       <c r="B136">
-        <v>0.7384708639028787</v>
+        <v>0.6730017604655608</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>41380</v>
+        <v>40252</v>
       </c>
       <c r="B137">
-        <v>0.6842271796531986</v>
+        <v>0.7362209916197381</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>42178</v>
+        <v>39615</v>
       </c>
       <c r="B138">
-        <v>0.6871193927441076</v>
+        <v>0.6130096593229521</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>42199</v>
+        <v>40197</v>
       </c>
       <c r="B139">
-        <v>0.7534277898412942</v>
+        <v>0.6931624822765603</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43053</v>
+        <v>40862</v>
       </c>
       <c r="B140">
-        <v>0.6169791462538046</v>
+        <v>0.7498623941930393</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>42108</v>
+        <v>40330</v>
       </c>
       <c r="B141">
-        <v>0.7317975244002785</v>
+        <v>0.6877835858319765</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>41471</v>
+        <v>43011</v>
       </c>
       <c r="B142">
-        <v>0.6725365109703825</v>
+        <v>0.6540699369102655</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>41933</v>
+        <v>40764</v>
       </c>
       <c r="B143">
-        <v>0.7618474706616517</v>
+        <v>0.7168296382533806</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>41849</v>
+        <v>42864</v>
       </c>
       <c r="B144">
-        <v>0.7056208474358152</v>
+        <v>0.6973360781217397</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>41317</v>
+        <v>39902</v>
       </c>
       <c r="B145">
-        <v>0.7720758009498878</v>
+        <v>0.6878278616134264</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>42598</v>
+        <v>39979</v>
       </c>
       <c r="B146">
-        <v>0.658251733338765</v>
+        <v>0.7180501620122203</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>42668</v>
+        <v>39686</v>
       </c>
       <c r="B147">
-        <v>0.7756178290353026</v>
+        <v>0.7185649652146293</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>42934</v>
+        <v>39818</v>
       </c>
       <c r="B148">
-        <v>0.5750813024355192</v>
+        <v>0.645700026989922</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>42514</v>
+        <v>40497</v>
       </c>
       <c r="B149">
-        <v>0.5431277962320327</v>
+        <v>0.7454019161084542</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>42549</v>
+        <v>39500</v>
       </c>
       <c r="B150">
-        <v>0.7033015841199878</v>
+        <v>0.7007045571614753</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>42696</v>
+        <v>39460</v>
       </c>
       <c r="B151">
-        <v>0.7016615277929562</v>
+        <v>0.7292843021293557</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>41415</v>
+        <v>40869</v>
       </c>
       <c r="B152">
-        <v>0.7203876512845039</v>
+        <v>0.693327096463666</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43060</v>
+        <v>39550</v>
       </c>
       <c r="B153">
-        <v>0.5983365478508224</v>
+        <v>0.7049179388987691</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>42444</v>
+        <v>40995</v>
       </c>
       <c r="B154">
-        <v>0.6132978417612206</v>
+        <v>0.7133353276278087</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>42059</v>
+        <v>41016</v>
       </c>
       <c r="B155">
-        <v>0.6698187646372949</v>
+        <v>0.7266480152706581</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>42913</v>
+        <v>39910</v>
       </c>
       <c r="B156">
-        <v>0.6313261369886903</v>
+        <v>0.6290498682946254</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>42542</v>
+        <v>42983</v>
       </c>
       <c r="B157">
-        <v>0.5665402957029781</v>
+        <v>0.6728046823275753</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>41751</v>
+        <v>42556</v>
       </c>
       <c r="B158">
-        <v>0.7191564305508016</v>
+        <v>0.657215159116588</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>42290</v>
+        <v>42360</v>
       </c>
       <c r="B159">
-        <v>0.721271110617092</v>
+        <v>0.706167277009173</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>41884</v>
+        <v>42647</v>
       </c>
       <c r="B160">
-        <v>0.723870473806233</v>
+        <v>0.6921161856824407</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>41744</v>
+        <v>39622</v>
       </c>
       <c r="B161">
-        <v>0.6694257341648365</v>
+        <v>0.6801510859381836</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>41982</v>
+        <v>41674</v>
       </c>
       <c r="B162">
-        <v>0.6830526679799658</v>
+        <v>0.6713221561695745</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>41716</v>
+        <v>39532</v>
       </c>
       <c r="B163">
-        <v>0.6987449557389719</v>
+        <v>0.5886248442340856</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>41534</v>
+        <v>39693</v>
       </c>
       <c r="B164">
-        <v>0.5784506231178849</v>
+        <v>0.733744150375347</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>42318</v>
+        <v>40588</v>
       </c>
       <c r="B165">
-        <v>0.7080365372443765</v>
+        <v>0.761349338320263</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>42815</v>
+        <v>40337</v>
       </c>
       <c r="B166">
-        <v>0.6488692201828824</v>
+        <v>0.7173626262194477</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>41639</v>
+        <v>41786</v>
       </c>
       <c r="B167">
-        <v>0.7225469330760531</v>
+        <v>0.6823268929198998</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>42101</v>
+        <v>42458</v>
       </c>
       <c r="B168">
-        <v>0.6402427361594145</v>
+        <v>0.6977243446204971</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>41940</v>
+        <v>40155</v>
       </c>
       <c r="B169">
-        <v>0.7137628578088221</v>
+        <v>0.6904535836069232</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>41310</v>
+        <v>39749</v>
       </c>
       <c r="B170">
-        <v>0.597054629739918</v>
+        <v>0.7516650585225823</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>42563</v>
+        <v>39811</v>
       </c>
       <c r="B171">
-        <v>0.6617265553523352</v>
+        <v>0.6777250744417774</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>42507</v>
+        <v>41758</v>
       </c>
       <c r="B172">
-        <v>0.6108500149049063</v>
+        <v>0.7460066655862458</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>42171</v>
+        <v>40722</v>
       </c>
       <c r="B173">
-        <v>0.6852009614863381</v>
+        <v>0.699632731223761</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>42689</v>
+        <v>39754</v>
       </c>
       <c r="B174">
-        <v>0.6598358164174375</v>
+        <v>0.7045057364752316</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>42752</v>
+        <v>41709</v>
       </c>
       <c r="B175">
-        <v>0.6514962568997551</v>
+        <v>0.7052832538053437</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>43067</v>
+        <v>39545</v>
       </c>
       <c r="B176">
-        <v>0.595922212135094</v>
+        <v>0.7153534447410901</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>41961</v>
+        <v>41338</v>
       </c>
       <c r="B177">
-        <v>0.7183651440474581</v>
+        <v>0.6960542090392852</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43032</v>
+        <v>40203</v>
       </c>
       <c r="B178">
-        <v>0.6286694110652682</v>
+        <v>0.6933370160347294</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>42871</v>
+        <v>39551</v>
       </c>
       <c r="B179">
-        <v>0.5884841155484293</v>
+        <v>0.6370720473638924</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43011</v>
+        <v>40967</v>
       </c>
       <c r="B180">
-        <v>0.6676262900292556</v>
+        <v>0.6791841478973178</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>41331</v>
+        <v>39629</v>
       </c>
       <c r="B181">
-        <v>0.7684770458014135</v>
+        <v>0.629106240359173</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>42864</v>
+        <v>41996</v>
       </c>
       <c r="B182">
-        <v>0.7260155793010956</v>
+        <v>0.7082768205139922</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>42920</v>
+        <v>40876</v>
       </c>
       <c r="B183">
-        <v>0.6010214206342096</v>
+        <v>0.7169818214822385</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>41919</v>
+        <v>41779</v>
       </c>
       <c r="B184">
-        <v>0.7860385837193323</v>
+        <v>0.7059987838431487</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>42836</v>
+        <v>43025</v>
       </c>
       <c r="B185">
-        <v>0.672218686373063</v>
+        <v>0.6215068738376578</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>41366</v>
+        <v>40148</v>
       </c>
       <c r="B186">
-        <v>0.7487580319801354</v>
+        <v>0.7281355155149489</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>42017</v>
+        <v>40092</v>
       </c>
       <c r="B187">
-        <v>0.6513053749284353</v>
+        <v>0.6869079959961015</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>42213</v>
+        <v>39993</v>
       </c>
       <c r="B188">
-        <v>0.6024332770651848</v>
+        <v>0.6900812252157481</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43095</v>
+        <v>40246</v>
       </c>
       <c r="B189">
-        <v>0.7730262840857649</v>
+        <v>0.6978014619317244</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>41541</v>
+        <v>39586</v>
       </c>
       <c r="B190">
-        <v>0.619885290708389</v>
+        <v>0.6296168763632971</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>41856</v>
+        <v>40119</v>
       </c>
       <c r="B191">
-        <v>0.7102975556986778</v>
+        <v>0.7232799508098856</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>41632</v>
+        <v>41863</v>
       </c>
       <c r="B192">
-        <v>0.6431853892747922</v>
+        <v>0.7134263345116529</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>42122</v>
+        <v>41345</v>
       </c>
       <c r="B193">
-        <v>0.7413448017092269</v>
+        <v>0.7100037890428601</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>42353</v>
+        <v>41002</v>
       </c>
       <c r="B194">
-        <v>0.7209270734837037</v>
+        <v>0.7181628095979196</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>42829</v>
+        <v>42031</v>
       </c>
       <c r="B195">
-        <v>0.6255061481075639</v>
+        <v>0.7051740916508917</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>42983</v>
+        <v>42003</v>
       </c>
       <c r="B196">
-        <v>0.7443956818136725</v>
+        <v>0.7357234541949668</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>42556</v>
+        <v>39707</v>
       </c>
       <c r="B197">
-        <v>0.646013823660907</v>
+        <v>0.7416921297676313</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>42360</v>
+        <v>39513</v>
       </c>
       <c r="B198">
-        <v>0.6210644589221412</v>
+        <v>0.6424024364770298</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>42647</v>
+        <v>42444</v>
       </c>
       <c r="B199">
-        <v>0.726945642861757</v>
+        <v>0.7267898126062925</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>42682</v>
+        <v>42885</v>
       </c>
       <c r="B200">
-        <v>0.7220967131078658</v>
+        <v>0.6649703031243255</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>42759</v>
+        <v>40196</v>
       </c>
       <c r="B201">
-        <v>0.6725526642646247</v>
+        <v>0.7079895827184615</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>41954</v>
+        <v>39595</v>
       </c>
       <c r="B202">
-        <v>0.6798193291225685</v>
+        <v>0.7381661370430743</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>42633</v>
+        <v>40120</v>
       </c>
       <c r="B203">
-        <v>0.5820097586353643</v>
+        <v>0.6852718471460654</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>42458</v>
+        <v>41723</v>
       </c>
       <c r="B204">
-        <v>0.6054397188875477</v>
+        <v>0.7016410178640982</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>42395</v>
+        <v>39489</v>
       </c>
       <c r="B205">
-        <v>0.6268923440935282</v>
+        <v>0.6669493162328626</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>41786</v>
+        <v>39854</v>
       </c>
       <c r="B206">
-        <v>0.7068916740064726</v>
+        <v>0.7304688071630614</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>41667</v>
+        <v>40631</v>
       </c>
       <c r="B207">
-        <v>0.7450433194150691</v>
+        <v>0.688274064245982</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>41324</v>
+        <v>42332</v>
       </c>
       <c r="B208">
-        <v>0.6129087931302158</v>
+        <v>0.7095916116193962</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>41695</v>
+        <v>40113</v>
       </c>
       <c r="B209">
-        <v>0.6984410128692715</v>
+        <v>0.6913067220396211</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>41359</v>
+        <v>39465</v>
       </c>
       <c r="B210">
-        <v>0.6631109084624741</v>
+        <v>0.5350444820351474</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>42570</v>
+        <v>41625</v>
       </c>
       <c r="B211">
-        <v>0.6122893051531612</v>
+        <v>0.7081201841373972</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>42626</v>
+        <v>41660</v>
       </c>
       <c r="B212">
-        <v>0.63753467219716</v>
+        <v>0.6884205372740901</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>42878</v>
+        <v>39669</v>
       </c>
       <c r="B213">
-        <v>0.7945850433676287</v>
+        <v>0.6555475798462527</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>41758</v>
+        <v>40358</v>
       </c>
       <c r="B214">
-        <v>0.7637775558954696</v>
+        <v>0.7143611692876456</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>42220</v>
+        <v>43039</v>
       </c>
       <c r="B215">
-        <v>0.6655487435775009</v>
+        <v>0.6672203953698708</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>42801</v>
+        <v>40106</v>
       </c>
       <c r="B216">
-        <v>0.7141026449575745</v>
+        <v>0.6822556674449393</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>41709</v>
+        <v>41079</v>
       </c>
       <c r="B217">
-        <v>0.7053923164057422</v>
+        <v>0.7364649319287208</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>42115</v>
+        <v>39488</v>
       </c>
       <c r="B218">
-        <v>0.7311623904227389</v>
+        <v>0.7089971553084193</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>42325</v>
+        <v>39672</v>
       </c>
       <c r="B219">
-        <v>0.6872532037063857</v>
+        <v>0.6453843971954669</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>42822</v>
+        <v>39476</v>
       </c>
       <c r="B220">
-        <v>0.6091767735424645</v>
+        <v>0.6169733260460604</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>42066</v>
+        <v>39474</v>
       </c>
       <c r="B221">
-        <v>0.7551076592094642</v>
+        <v>0.6315670385453209</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>42479</v>
+        <v>40624</v>
       </c>
       <c r="B222">
-        <v>0.7827559185215861</v>
+        <v>0.6829474200227406</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>42402</v>
+        <v>39602</v>
       </c>
       <c r="B223">
-        <v>0.6578816107637041</v>
+        <v>0.6957572192516824</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>42367</v>
+        <v>42017</v>
       </c>
       <c r="B224">
-        <v>0.6878651725749189</v>
+        <v>0.7085924741695036</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>43081</v>
+        <v>39640</v>
       </c>
       <c r="B225">
-        <v>0.6362277810902403</v>
+        <v>0.7547957686977421</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>42675</v>
+        <v>40519</v>
       </c>
       <c r="B226">
-        <v>0.6510428782841101</v>
+        <v>0.7082093093370576</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>42451</v>
+        <v>39604</v>
       </c>
       <c r="B227">
-        <v>0.6395307184192111</v>
+        <v>0.6433759314124248</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>41576</v>
+        <v>39518</v>
       </c>
       <c r="B228">
-        <v>0.5891765793796149</v>
+        <v>0.4664270386393985</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>41436</v>
+        <v>41086</v>
       </c>
       <c r="B229">
-        <v>0.681425500430809</v>
+        <v>0.7093028068438286</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>41807</v>
+        <v>41772</v>
       </c>
       <c r="B230">
-        <v>0.7758022211231016</v>
+        <v>0.7319363365487508</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>42255</v>
+        <v>42717</v>
       </c>
       <c r="B231">
-        <v>0.6451750287824872</v>
+        <v>0.7193880512946955</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>41779</v>
+        <v>39491</v>
       </c>
       <c r="B232">
-        <v>0.7235117857089505</v>
+        <v>0.5869008503316516</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>43025</v>
+        <v>40708</v>
       </c>
       <c r="B233">
-        <v>0.688858112544122</v>
+        <v>0.6824064873983825</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>42388</v>
+        <v>40050</v>
       </c>
       <c r="B234">
-        <v>0.6473397857217597</v>
+        <v>0.6669043508222194</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>42297</v>
+        <v>40484</v>
       </c>
       <c r="B235">
-        <v>0.6752638197016664</v>
+        <v>0.6954640626382537</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>41828</v>
+        <v>40813</v>
       </c>
       <c r="B236">
-        <v>0.5940301995864897</v>
+        <v>0.6840309267657481</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>42283</v>
+        <v>39665</v>
       </c>
       <c r="B237">
-        <v>0.6653547093145722</v>
+        <v>0.6005506844531584</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>42899</v>
+        <v>39641</v>
       </c>
       <c r="B238">
-        <v>0.6412440347775037</v>
+        <v>0.6976521832756927</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>42654</v>
+        <v>40526</v>
       </c>
       <c r="B239">
-        <v>0.6255168220090302</v>
+        <v>0.6982375623084023</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>42766</v>
+        <v>39728</v>
       </c>
       <c r="B240">
-        <v>0.546309531996694</v>
+        <v>0.639652716120942</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>41624</v>
+        <v>39501</v>
       </c>
       <c r="B241">
-        <v>0.7662162545435328</v>
+        <v>0.7917903827605797</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>41618</v>
+        <v>39511</v>
       </c>
       <c r="B242">
-        <v>0.7467138969678879</v>
+        <v>0.6823363435400597</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>43039</v>
+        <v>39700</v>
       </c>
       <c r="B243">
-        <v>0.67681990159216</v>
+        <v>0.6827940085226326</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>41863</v>
+        <v>41765</v>
       </c>
       <c r="B244">
-        <v>0.5538027284959711</v>
+        <v>0.7357103444964829</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>42073</v>
+        <v>41499</v>
       </c>
       <c r="B245">
-        <v>0.6146146961908522</v>
+        <v>0.6718161471877599</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>42486</v>
+        <v>39482</v>
       </c>
       <c r="B246">
-        <v>0.606392610525103</v>
+        <v>0.5920256167713587</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>42409</v>
+        <v>40428</v>
       </c>
       <c r="B247">
-        <v>0.671199683241266</v>
+        <v>0.7569674388311742</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>42619</v>
+        <v>40939</v>
       </c>
       <c r="B248">
-        <v>0.5750443038859435</v>
+        <v>0.705947917728292</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>42052</v>
+        <v>39454</v>
       </c>
       <c r="B249">
-        <v>0.6458349674083042</v>
+        <v>0.7059795102948818</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>42990</v>
+        <v>39525</v>
       </c>
       <c r="B250">
-        <v>0.6372479695597465</v>
+        <v>0.7730328677890298</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>42031</v>
+        <v>39930</v>
       </c>
       <c r="B251">
-        <v>0.6492791626004607</v>
+        <v>0.698260129295986</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>42003</v>
+        <v>42416</v>
       </c>
       <c r="B252">
-        <v>0.517423470738716</v>
+        <v>0.7309925889214182</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>42584</v>
+        <v>39782</v>
       </c>
       <c r="B253">
-        <v>0.5992173850786541</v>
+        <v>0.6637630075421354</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>42976</v>
+        <v>39456</v>
       </c>
       <c r="B254">
-        <v>0.5015741537649527</v>
+        <v>0.6835381294212221</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>41814</v>
+        <v>39546</v>
       </c>
       <c r="B255">
-        <v>0.7431724685464136</v>
+        <v>0.6823669967790706</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>42311</v>
+        <v>39606</v>
       </c>
       <c r="B256">
-        <v>0.7150244239779453</v>
+        <v>0.6021480147271824</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>42164</v>
+        <v>39650</v>
       </c>
       <c r="B257">
-        <v>0.7065841819889814</v>
+        <v>0.6723724492842803</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>42780</v>
+        <v>40533</v>
       </c>
       <c r="B258">
-        <v>0.583975122947777</v>
+        <v>0.6801173254342463</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>43046</v>
+        <v>39735</v>
       </c>
       <c r="B259">
-        <v>0.6111114811371945</v>
+        <v>0.6780753708202744</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>42885</v>
+        <v>41548</v>
       </c>
       <c r="B260">
-        <v>0.6372801911851695</v>
+        <v>0.7040098692778005</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>42248</v>
+        <v>41394</v>
       </c>
       <c r="B261">
-        <v>0.7014891678608055</v>
+        <v>0.7068992277099775</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
+        <v>39536</v>
+      </c>
+      <c r="B262">
+        <v>0.6477803023115193</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>39705</v>
+      </c>
+      <c r="B263">
+        <v>0.6974264811633084</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>39888</v>
+      </c>
+      <c r="B264">
+        <v>0.6389392408264973</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>39481</v>
+      </c>
+      <c r="B265">
+        <v>0.7646383507588076</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>40099</v>
+      </c>
+      <c r="B266">
+        <v>0.6639795892472448</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>40232</v>
+      </c>
+      <c r="B267">
+        <v>0.7029825683702657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>42423</v>
+      </c>
+      <c r="B268">
+        <v>0.7099309120267159</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>39972</v>
+      </c>
+      <c r="B269">
+        <v>0.7040909473146367</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B270">
+        <v>0.6885389499535165</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>41905</v>
+      </c>
+      <c r="B271">
+        <v>0.7216075268480714</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>41373</v>
+      </c>
+      <c r="B272">
+        <v>0.7039637655846603</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>39461</v>
+      </c>
+      <c r="B273">
+        <v>0.6726542993713234</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>39541</v>
+      </c>
+      <c r="B274">
+        <v>0.7354857107987469</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>41163</v>
+      </c>
+      <c r="B275">
+        <v>0.6989186301257041</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>40540</v>
+      </c>
+      <c r="B276">
+        <v>0.6833668116385097</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>39742</v>
+      </c>
+      <c r="B277">
+        <v>0.6834126464385828</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>40386</v>
+      </c>
+      <c r="B278">
+        <v>0.6854663250050674</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>41100</v>
+      </c>
+      <c r="B279">
+        <v>0.6742050746233474</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B280">
+        <v>0.6650344321831737</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>41947</v>
+      </c>
+      <c r="B281">
+        <v>0.6967735173875891</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>39698</v>
+      </c>
+      <c r="B282">
+        <v>0.6561280742960482</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>40344</v>
+      </c>
+      <c r="B283">
+        <v>0.6777523020143794</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>39504</v>
+      </c>
+      <c r="B284">
+        <v>0.6174262670566215</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>39791</v>
+      </c>
+      <c r="B285">
+        <v>0.6961885001032088</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>42745</v>
+      </c>
+      <c r="B286">
+        <v>0.7023246068985611</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>41429</v>
+      </c>
+      <c r="B287">
+        <v>0.6975101232296349</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>42199</v>
+      </c>
+      <c r="B288">
+        <v>0.7188384226091256</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>39564</v>
+      </c>
+      <c r="B289">
+        <v>0.628585636017273</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>39916</v>
+      </c>
+      <c r="B290">
+        <v>0.6986981288449493</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>39471</v>
+      </c>
+      <c r="B291">
+        <v>0.6038007655938896</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B292">
+        <v>0.7025150864713202</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>40267</v>
+      </c>
+      <c r="B293">
+        <v>0.6598503621401562</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>40014</v>
+      </c>
+      <c r="B294">
+        <v>0.6525860919769773</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>39719</v>
+      </c>
+      <c r="B295">
+        <v>0.6545116935820888</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B296">
+        <v>0.6799958575470567</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>40351</v>
+      </c>
+      <c r="B297">
+        <v>0.6365429740565884</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>39495</v>
+      </c>
+      <c r="B298">
+        <v>0.7058368683440482</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>39798</v>
+      </c>
+      <c r="B299">
+        <v>0.3886946491933619</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B300">
+        <v>0.6778637164238804</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>39994</v>
+      </c>
+      <c r="B301">
+        <v>0.6429422476873039</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>39599</v>
+      </c>
+      <c r="B302">
+        <v>0.6877125696424696</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>42591</v>
+      </c>
+      <c r="B303">
+        <v>0.6979079535108931</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>43088</v>
+      </c>
+      <c r="B304">
+        <v>0.676411926948178</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B305">
+        <v>0.6805932519703317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>39567</v>
+      </c>
+      <c r="B306">
+        <v>0.7649300489084897</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>40036</v>
+      </c>
+      <c r="B307">
+        <v>0.7344523501714627</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>40498</v>
+      </c>
+      <c r="B308">
+        <v>0.7004470956177913</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>39748</v>
+      </c>
+      <c r="B309">
+        <v>0.6684776050826156</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B310">
+        <v>0.706965504502292</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>40260</v>
+      </c>
+      <c r="B311">
+        <v>0.7381190163245508</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>39712</v>
+      </c>
+      <c r="B312">
+        <v>0.6977332276497359</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>40518</v>
+      </c>
+      <c r="B313">
+        <v>0.6182777063790335</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>41107</v>
+      </c>
+      <c r="B314">
+        <v>0.675499266242339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>39479</v>
+      </c>
+      <c r="B315">
+        <v>0.6705331022650869</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>42108</v>
+      </c>
+      <c r="B316">
+        <v>0.6803923464147597</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>41933</v>
+      </c>
+      <c r="B317">
+        <v>0.722823482697005</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>40141</v>
+      </c>
+      <c r="B318">
+        <v>0.6704684016047535</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>42696</v>
+      </c>
+      <c r="B319">
+        <v>0.6880599449926093</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>39558</v>
+      </c>
+      <c r="B320">
+        <v>0.6771675067421378</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>43060</v>
+      </c>
+      <c r="B321">
+        <v>0.7226129390695961</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>40736</v>
+      </c>
+      <c r="B322">
+        <v>0.6838228670370382</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>39697</v>
+      </c>
+      <c r="B323">
+        <v>0.6607832717536832</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>42598</v>
+      </c>
+      <c r="B324">
+        <v>0.6625586485200283</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>39470</v>
+      </c>
+      <c r="B325">
+        <v>0.687795971065187</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>40365</v>
+      </c>
+      <c r="B326">
+        <v>0.662755394079623</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>40470</v>
+      </c>
+      <c r="B327">
+        <v>0.7294611168418559</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>40008</v>
+      </c>
+      <c r="B328">
+        <v>0.6998693539938292</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>39600</v>
+      </c>
+      <c r="B329">
+        <v>0.6822051914645316</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>39522</v>
+      </c>
+      <c r="B330">
+        <v>0.6765575243722159</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>42101</v>
+      </c>
+      <c r="B331">
+        <v>0.7091430387540042</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>40680</v>
+      </c>
+      <c r="B332">
+        <v>0.6596938571841143</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>41940</v>
+      </c>
+      <c r="B333">
+        <v>0.746534333960457</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>40218</v>
+      </c>
+      <c r="B334">
+        <v>0.6970055942743291</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>41023</v>
+      </c>
+      <c r="B335">
+        <v>0.7277586546356091</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B336">
+        <v>0.7027789348231217</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>39671</v>
+      </c>
+      <c r="B337">
+        <v>0.6881900178109651</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>43067</v>
+      </c>
+      <c r="B338">
+        <v>0.6544504251532783</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>40512</v>
+      </c>
+      <c r="B339">
+        <v>0.7157787316882008</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>39475</v>
+      </c>
+      <c r="B340">
+        <v>0.5959797130923199</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>40477</v>
+      </c>
+      <c r="B341">
+        <v>0.7006736932385742</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>41352</v>
+      </c>
+      <c r="B342">
+        <v>0.6955735396746276</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>39637</v>
+      </c>
+      <c r="B343">
+        <v>0.8054682683896823</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>42626</v>
+      </c>
+      <c r="B344">
+        <v>0.6770892556080597</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>42213</v>
+      </c>
+      <c r="B345">
+        <v>0.7002764755381433</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>39607</v>
+      </c>
+      <c r="B346">
+        <v>0.6980948651497354</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>39889</v>
+      </c>
+      <c r="B347">
+        <v>0.7240671448775563</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B348">
+        <v>0.6879902659837538</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>40400</v>
+      </c>
+      <c r="B349">
+        <v>0.7037398549966415</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>39938</v>
+      </c>
+      <c r="B350">
+        <v>0.672159426447742</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>39486</v>
+      </c>
+      <c r="B351">
+        <v>0.6299255902305143</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B352">
+        <v>0.6912057774884378</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B353">
+        <v>0.6547069077954959</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>39662</v>
+      </c>
+      <c r="B354">
+        <v>0.7394988461118137</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>39826</v>
+      </c>
+      <c r="B355">
+        <v>0.7744765966808411</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B356">
+        <v>0.6628076309509242</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>39452</v>
+      </c>
+      <c r="B357">
+        <v>0.6789921396583597</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>40456</v>
+      </c>
+      <c r="B358">
+        <v>0.688896031845321</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>41359</v>
+      </c>
+      <c r="B359">
+        <v>0.6769259325122028</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>42220</v>
+      </c>
+      <c r="B360">
+        <v>0.702523879725662</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>39614</v>
+      </c>
+      <c r="B361">
+        <v>0.6658023911168099</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>39896</v>
+      </c>
+      <c r="B362">
+        <v>0.7159159431591391</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>41072</v>
+      </c>
+      <c r="B363">
+        <v>0.6816662965750017</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>40596</v>
+      </c>
+      <c r="B364">
+        <v>0.6963993458661204</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B365">
+        <v>0.697765655523346</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B366">
+        <v>0.6730804421275814</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>39945</v>
+      </c>
+      <c r="B367">
+        <v>0.6812455287767247</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>39485</v>
+      </c>
+      <c r="B368">
+        <v>0.6048279155580786</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>39784</v>
+      </c>
+      <c r="B369">
+        <v>0.8569696053905193</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>40932</v>
+      </c>
+      <c r="B370">
+        <v>0.6813159315207115</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B371">
+        <v>0.7208525546527071</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>39581</v>
+      </c>
+      <c r="B372">
+        <v>0.7568655343976877</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B373">
+        <v>0.6988199281052998</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>39633</v>
+      </c>
+      <c r="B374">
+        <v>0.6802339015255933</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>41037</v>
+      </c>
+      <c r="B375">
+        <v>0.6614270147144052</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>39457</v>
+      </c>
+      <c r="B376">
+        <v>0.5959798056967914</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>39636</v>
+      </c>
+      <c r="B377">
+        <v>0.6678482817581424</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>40463</v>
+      </c>
+      <c r="B378">
+        <v>0.7140163574202768</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>41828</v>
+      </c>
+      <c r="B379">
+        <v>0.7137156875401754</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>42654</v>
+      </c>
+      <c r="B380">
+        <v>0.6663920519028659</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>39621</v>
+      </c>
+      <c r="B381">
+        <v>0.6877007748860205</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>39875</v>
+      </c>
+      <c r="B382">
+        <v>0.7094703784999233</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>40414</v>
+      </c>
+      <c r="B383">
+        <v>0.7031082436227604</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B384">
+        <v>0.6746387624218376</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>42073</v>
+      </c>
+      <c r="B385">
+        <v>0.6908687639143558</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>40834</v>
+      </c>
+      <c r="B386">
+        <v>0.7155658407956367</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>40778</v>
+      </c>
+      <c r="B387">
+        <v>0.6917133776419878</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B388">
+        <v>0.6641402408090511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>40925</v>
+      </c>
+      <c r="B389">
+        <v>0.6708429781406267</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>41919</v>
+      </c>
+      <c r="B390">
+        <v>0.7200412323050216</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>39578</v>
+      </c>
+      <c r="B391">
+        <v>0.6843241292330496</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>40127</v>
+      </c>
+      <c r="B392">
+        <v>0.6876393189381078</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B393">
+        <v>0.6965470146382692</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>39448</v>
+      </c>
+      <c r="B394">
+        <v>0.6909520436909856</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>40743</v>
+      </c>
+      <c r="B395">
+        <v>0.6497582379716464</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>39544</v>
+      </c>
+      <c r="B396">
+        <v>0.6573328711820158</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>43046</v>
+      </c>
+      <c r="B397">
+        <v>0.6888106472748077</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>40379</v>
+      </c>
+      <c r="B398">
+        <v>0.7045203370857063</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
         <v>42234</v>
       </c>
-      <c r="B262">
-        <v>0.6236745473184504</v>
+      <c r="B399">
+        <v>0.6216910458594053</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>39628</v>
+      </c>
+      <c r="B400">
+        <v>0.6835677679031399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>39882</v>
+      </c>
+      <c r="B401">
+        <v>0.7387401480637638</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>42808</v>
+      </c>
+      <c r="B402">
+        <v>0.6363570219783977</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>39959</v>
+      </c>
+      <c r="B403">
+        <v>0.7143559971106642</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>39499</v>
+      </c>
+      <c r="B404">
+        <v>0.6489657056172697</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B405">
+        <v>0.6877734134719804</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>41926</v>
+      </c>
+      <c r="B406">
+        <v>0.707507195506794</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>42731</v>
+      </c>
+      <c r="B407">
+        <v>0.7059671512731714</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>39839</v>
+      </c>
+      <c r="B408">
+        <v>0.6596986275449929</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>42892</v>
+      </c>
+      <c r="B409">
+        <v>0.7095312395981607</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>42472</v>
+      </c>
+      <c r="B410">
+        <v>0.6486416501770115</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>39846</v>
+      </c>
+      <c r="B411">
+        <v>0.6528035951876243</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>43053</v>
+      </c>
+      <c r="B412">
+        <v>0.6577666935826182</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>41268</v>
+      </c>
+      <c r="B413">
+        <v>0.7006971974769162</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>39965</v>
+      </c>
+      <c r="B414">
+        <v>0.6875475722360874</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>40372</v>
+      </c>
+      <c r="B415">
+        <v>0.7052765313264634</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B416">
+        <v>0.7072331647679239</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>42773</v>
+      </c>
+      <c r="B417">
+        <v>0.7229983354718427</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>39553</v>
+      </c>
+      <c r="B418">
+        <v>0.730801761108584</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>42633</v>
+      </c>
+      <c r="B419">
+        <v>0.6817968076463488</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>41261</v>
+      </c>
+      <c r="B420">
+        <v>0.6905620325967584</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>41513</v>
+      </c>
+      <c r="B421">
+        <v>0.700119156863083</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>39592</v>
+      </c>
+      <c r="B422">
+        <v>0.7113684118954067</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>40897</v>
+      </c>
+      <c r="B423">
+        <v>0.6940373277582594</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>40841</v>
+      </c>
+      <c r="B424">
+        <v>0.7237304115477357</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>41688</v>
+      </c>
+      <c r="B425">
+        <v>0.6526680311959174</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>42976</v>
+      </c>
+      <c r="B426">
+        <v>0.6236119174995427</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>40918</v>
+      </c>
+      <c r="B427">
+        <v>0.6858823557890509</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>40064</v>
+      </c>
+      <c r="B428">
+        <v>0.6979398265964479</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>39678</v>
+      </c>
+      <c r="B429">
+        <v>0.6147193890168913</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>39713</v>
+      </c>
+      <c r="B430">
+        <v>0.6773137131471081</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>41478</v>
+      </c>
+      <c r="B431">
+        <v>0.6881400460804489</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>41296</v>
+      </c>
+      <c r="B432">
+        <v>0.6621197804901194</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>39812</v>
+      </c>
+      <c r="B433">
+        <v>0.7370317129699628</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>42080</v>
+      </c>
+      <c r="B434">
+        <v>0.7066038315005509</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>40140</v>
+      </c>
+      <c r="B435">
+        <v>0.7083911839526162</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>42752</v>
+      </c>
+      <c r="B436">
+        <v>0.6870731181603377</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B437">
+        <v>0.7213543191486623</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>39931</v>
+      </c>
+      <c r="B438">
+        <v>0.6530399093366975</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>42969</v>
+      </c>
+      <c r="B439">
+        <v>0.6375703830922783</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B440">
+        <v>0.6797834646384524</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B441">
+        <v>0.697973040658851</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>42668</v>
+      </c>
+      <c r="B442">
+        <v>0.6927792357421989</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>41835</v>
+      </c>
+      <c r="B443">
+        <v>0.7095179770525292</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>39519</v>
+      </c>
+      <c r="B444">
+        <v>0.622460868022465</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>40175</v>
+      </c>
+      <c r="B445">
+        <v>0.6688175594425834</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>42087</v>
+      </c>
+      <c r="B446">
+        <v>0.716860606207958</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>39620</v>
+      </c>
+      <c r="B447">
+        <v>0.6588138969721362</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>39490</v>
+      </c>
+      <c r="B448">
+        <v>0.6325100106554167</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>40281</v>
+      </c>
+      <c r="B449">
+        <v>0.7117566863291099</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>41520</v>
+      </c>
+      <c r="B450">
+        <v>0.6573765169596187</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>41184</v>
+      </c>
+      <c r="B451">
+        <v>0.6988125714952171</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>42437</v>
+      </c>
+      <c r="B452">
+        <v>0.7047748260193941</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>42962</v>
+      </c>
+      <c r="B453">
+        <v>0.6729025821436161</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B454">
+        <v>0.6793689417680215</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>39642</v>
+      </c>
+      <c r="B455">
+        <v>0.657590071454337</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>40806</v>
+      </c>
+      <c r="B456">
+        <v>0.6412096214754877</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>39727</v>
+      </c>
+      <c r="B457">
+        <v>0.6663304642608626</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>41464</v>
+      </c>
+      <c r="B458">
+        <v>0.6819959033826628</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>40245</v>
+      </c>
+      <c r="B459">
+        <v>0.7281693752722957</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>41177</v>
+      </c>
+      <c r="B460">
+        <v>0.6808492646193535</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>39512</v>
+      </c>
+      <c r="B461">
+        <v>0.6690684819990109</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>40302</v>
+      </c>
+      <c r="B462">
+        <v>0.6915894398484427</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>41597</v>
+      </c>
+      <c r="B463">
+        <v>0.7088463425433098</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>40757</v>
+      </c>
+      <c r="B464">
+        <v>0.71897495356797</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>41842</v>
+      </c>
+      <c r="B465">
+        <v>0.7008575238775957</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>39739</v>
+      </c>
+      <c r="B466">
+        <v>0.7356832014711545</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B467">
+        <v>0.7123511932050711</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>39569</v>
+      </c>
+      <c r="B468">
+        <v>0.5887646279762717</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>41191</v>
+      </c>
+      <c r="B469">
+        <v>0.6643678322338039</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>40490</v>
+      </c>
+      <c r="B470">
+        <v>0.7790071711020464</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>39453</v>
+      </c>
+      <c r="B471">
+        <v>0.6636335299124881</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>42787</v>
+      </c>
+      <c r="B472">
+        <v>0.6852465053573834</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>39549</v>
+      </c>
+      <c r="B473">
+        <v>0.6307052748571094</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>39651</v>
+      </c>
+      <c r="B474">
+        <v>0.7133098198002249</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>40532</v>
+      </c>
+      <c r="B475">
+        <v>0.7560920968587493</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>39734</v>
+      </c>
+      <c r="B476">
+        <v>0.6437519286510228</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>40449</v>
+      </c>
+      <c r="B477">
+        <v>0.6829608232437553</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B478">
+        <v>0.7221870477364124</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>39853</v>
+      </c>
+      <c r="B479">
+        <v>0.667675996023654</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>39537</v>
+      </c>
+      <c r="B480">
+        <v>0.6402482168807261</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>39706</v>
+      </c>
+      <c r="B481">
+        <v>0.6546220085545463</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>41093</v>
+      </c>
+      <c r="B482">
+        <v>0.7359904590853398</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>40168</v>
+      </c>
+      <c r="B483">
+        <v>0.665887214593532</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>42906</v>
+      </c>
+      <c r="B484">
+        <v>0.6872376428073236</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>40231</v>
+      </c>
+      <c r="B485">
+        <v>0.6502302668634252</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>40183</v>
+      </c>
+      <c r="B486">
+        <v>0.6750728806706251</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B487">
+        <v>0.6023107582045951</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>39973</v>
+      </c>
+      <c r="B488">
+        <v>0.6993189444964611</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>39684</v>
+      </c>
+      <c r="B489">
+        <v>0.6945686572954406</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>41898</v>
+      </c>
+      <c r="B490">
+        <v>0.6976553005176882</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B491">
+        <v>0.68453435861177</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B492">
+        <v>0.7185701332227377</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B493">
+        <v>0.6656817166670517</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B494">
+        <v>0.6640826579494215</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>39860</v>
+      </c>
+      <c r="B495">
+        <v>0.704850983684459</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>40827</v>
+      </c>
+      <c r="B496">
+        <v>0.6867893128806929</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>40407</v>
+      </c>
+      <c r="B497">
+        <v>0.7022557659243931</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>39741</v>
+      </c>
+      <c r="B498">
+        <v>0.6720612765393774</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>40442</v>
+      </c>
+      <c r="B499">
+        <v>0.6854419303956787</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>40946</v>
+      </c>
+      <c r="B500">
+        <v>0.7182118475478411</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>39530</v>
+      </c>
+      <c r="B501">
+        <v>0.6882994157662755</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>39515</v>
+      </c>
+      <c r="B502">
+        <v>0.654572265799918</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>40638</v>
+      </c>
+      <c r="B503">
+        <v>0.6766198996838608</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>43018</v>
+      </c>
+      <c r="B504">
+        <v>0.6839398032113618</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>40161</v>
+      </c>
+      <c r="B505">
+        <v>0.6790411939985375</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>39790</v>
+      </c>
+      <c r="B506">
+        <v>0.6460889709199342</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>42122</v>
+      </c>
+      <c r="B507">
+        <v>0.6843532946900741</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>39679</v>
+      </c>
+      <c r="B508">
+        <v>0.5032670209148049</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>39591</v>
+      </c>
+      <c r="B509">
+        <v>0.6014450549862937</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>40126</v>
+      </c>
+      <c r="B510">
+        <v>0.7509003619693627</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>42178</v>
+      </c>
+      <c r="B511">
+        <v>0.6868858537951964</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>39543</v>
+      </c>
+      <c r="B512">
+        <v>0.6797014224104766</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>40028</v>
+      </c>
+      <c r="B513">
+        <v>0.7304610522859155</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>39917</v>
+      </c>
+      <c r="B514">
+        <v>0.7279050399306449</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>39740</v>
+      </c>
+      <c r="B515">
+        <v>0.689683989590986</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>39523</v>
+      </c>
+      <c r="B516">
+        <v>0.7025675789211312</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>39720</v>
+      </c>
+      <c r="B517">
+        <v>0.6792980481465717</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>41226</v>
+      </c>
+      <c r="B518">
+        <v>0.6896198825482857</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>40659</v>
+      </c>
+      <c r="B519">
+        <v>0.6759373815636721</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>39494</v>
+      </c>
+      <c r="B520">
+        <v>0.615161583832264</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>41149</v>
+      </c>
+      <c r="B521">
+        <v>0.6650958526651251</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B522">
+        <v>0.672830721945493</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B523">
+        <v>0.6090611703737668</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>41884</v>
+      </c>
+      <c r="B524">
+        <v>0.6987241317649691</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>39761</v>
+      </c>
+      <c r="B525">
+        <v>0.6187621949134233</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>40295</v>
+      </c>
+      <c r="B526">
+        <v>0.7132643866344618</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B527">
+        <v>0.7091371912073994</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>40911</v>
+      </c>
+      <c r="B528">
+        <v>0.6956135083634567</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>39566</v>
+      </c>
+      <c r="B529">
+        <v>0.6459463664071158</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B530">
+        <v>0.7241051861864317</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>40182</v>
+      </c>
+      <c r="B531">
+        <v>0.7147427711447665</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>39747</v>
+      </c>
+      <c r="B532">
+        <v>0.6555410302057172</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>40960</v>
+      </c>
+      <c r="B533">
+        <v>0.6769792298728406</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>39657</v>
+      </c>
+      <c r="B534">
+        <v>0.6209547006812246</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>40547</v>
+      </c>
+      <c r="B535">
+        <v>0.6872403949114768</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>40568</v>
+      </c>
+      <c r="B536">
+        <v>0.6778940696377783</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>41009</v>
+      </c>
+      <c r="B537">
+        <v>0.7154315782239143</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>40652</v>
+      </c>
+      <c r="B538">
+        <v>0.6688808217558918</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B539">
+        <v>0.6679610430185784</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>42871</v>
+      </c>
+      <c r="B540">
+        <v>0.6759126772395425</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>41331</v>
+      </c>
+      <c r="B541">
+        <v>0.6734406155519453</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>40645</v>
+      </c>
+      <c r="B542">
+        <v>0.6890926090838956</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>39770</v>
+      </c>
+      <c r="B543">
+        <v>0.6735886936382968</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>39572</v>
+      </c>
+      <c r="B544">
+        <v>0.6948964471769949</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>41541</v>
+      </c>
+      <c r="B545">
+        <v>0.7023990971974006</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B546">
+        <v>0.6733753577116662</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>41632</v>
+      </c>
+      <c r="B547">
+        <v>0.6738516606775613</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>39467</v>
+      </c>
+      <c r="B548">
+        <v>0.7654508000335595</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B549">
+        <v>0.7265204852632301</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>42829</v>
+      </c>
+      <c r="B550">
+        <v>0.6656167541090816</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>40435</v>
+      </c>
+      <c r="B551">
+        <v>0.7103668370202313</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>39627</v>
+      </c>
+      <c r="B552">
+        <v>0.6590871097739697</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>42878</v>
+      </c>
+      <c r="B553">
+        <v>0.7354417932009837</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>40771</v>
+      </c>
+      <c r="B554">
+        <v>0.679936014132463</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>41324</v>
+      </c>
+      <c r="B555">
+        <v>0.6886412994227904</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>40217</v>
+      </c>
+      <c r="B556">
+        <v>0.7220941049782648</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>39670</v>
+      </c>
+      <c r="B557">
+        <v>0.7023198295353431</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B558">
+        <v>0.6711601238912264</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>41212</v>
+      </c>
+      <c r="B559">
+        <v>0.6687562540356171</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>42325</v>
+      </c>
+      <c r="B560">
+        <v>0.7164072658457005</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>39783</v>
+      </c>
+      <c r="B561">
+        <v>0.6481792173156911</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>40792</v>
+      </c>
+      <c r="B562">
+        <v>0.6699812024815505</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>40729</v>
+      </c>
+      <c r="B563">
+        <v>0.6468038918516412</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>39580</v>
+      </c>
+      <c r="B564">
+        <v>0.6337321365414117</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B565">
+        <v>0.7160399864626457</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>41415</v>
+      </c>
+      <c r="B566">
+        <v>0.6729348351957658</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>41576</v>
+      </c>
+      <c r="B567">
+        <v>0.6980922357773364</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>41807</v>
+      </c>
+      <c r="B568">
+        <v>0.7271816928268496</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>39516</v>
+      </c>
+      <c r="B569">
+        <v>0.5954283488218471</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B570">
+        <v>0.7110820962559806</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>39937</v>
+      </c>
+      <c r="B571">
+        <v>0.6524757835599134</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>39493</v>
+      </c>
+      <c r="B572">
+        <v>0.6757257938304835</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B573">
+        <v>0.6806032673183741</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>39573</v>
+      </c>
+      <c r="B574">
+        <v>0.7154947417661857</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B575">
+        <v>0.7083640997796825</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>39449</v>
+      </c>
+      <c r="B576">
+        <v>0.6484345816242875</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>42486</v>
+      </c>
+      <c r="B577">
+        <v>0.6470501598228788</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>39647</v>
+      </c>
+      <c r="B578">
+        <v>0.7584094443245416</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>42052</v>
+      </c>
+      <c r="B579">
+        <v>0.6951498445010719</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>42990</v>
+      </c>
+      <c r="B580">
+        <v>0.6865331044713395</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>41814</v>
+      </c>
+      <c r="B581">
+        <v>0.6996024620886772</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>39509</v>
+      </c>
+      <c r="B582">
+        <v>0.7388749372313423</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>42451</v>
+      </c>
+      <c r="B583">
+        <v>0.6828780603816876</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>39944</v>
+      </c>
+      <c r="B584">
+        <v>0.6209622145999359</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>39484</v>
+      </c>
+      <c r="B585">
+        <v>0.6993225195311199</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B586">
+        <v>0.6795713969878447</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B587">
+        <v>0.6080392826830801</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>39570</v>
+      </c>
+      <c r="B588">
+        <v>0.6982818491701034</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>41611</v>
+      </c>
+      <c r="B589">
+        <v>0.7027244865804456</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>39458</v>
+      </c>
+      <c r="B590">
+        <v>0.8177880471615278</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>39552</v>
+      </c>
+      <c r="B591">
+        <v>0.627330516031087</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>39656</v>
+      </c>
+      <c r="B592">
+        <v>0.640484576582939</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>40799</v>
+      </c>
+      <c r="B593">
+        <v>0.6382663970681053</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>39508</v>
+      </c>
+      <c r="B594">
+        <v>0.6851623216365251</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>40239</v>
+      </c>
+      <c r="B595">
+        <v>0.667249345908684</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>41793</v>
+      </c>
+      <c r="B596">
+        <v>0.7073813948459776</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>39874</v>
+      </c>
+      <c r="B597">
+        <v>0.6293077876245785</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>40554</v>
+      </c>
+      <c r="B598">
+        <v>0.7231714573277049</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>40582</v>
+      </c>
+      <c r="B599">
+        <v>0.7141425420351538</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>42115</v>
+      </c>
+      <c r="B600">
+        <v>0.7136148493290682</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>39951</v>
+      </c>
+      <c r="B601">
+        <v>0.7076823934827823</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>39507</v>
+      </c>
+      <c r="B602">
+        <v>0.6825012861874263</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B603">
+        <v>0.6933498639186068</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>40539</v>
+      </c>
+      <c r="B604">
+        <v>0.7103867173102814</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>39683</v>
+      </c>
+      <c r="B605">
+        <v>0.651556954667266</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>39579</v>
+      </c>
+      <c r="B606">
+        <v>0.7072506290390557</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>39756</v>
+      </c>
+      <c r="B607">
+        <v>0.6239069774656008</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>39462</v>
+      </c>
+      <c r="B608">
+        <v>0.7103180208027319</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>42129</v>
+      </c>
+      <c r="B609">
+        <v>0.7029223014111533</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>41870</v>
+      </c>
+      <c r="B610">
+        <v>0.7122811863028833</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B611">
+        <v>0.7068933645445348</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>43074</v>
+      </c>
+      <c r="B612">
+        <v>0.6768259679127291</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>40015</v>
+      </c>
+      <c r="B613">
+        <v>0.668344084585754</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>42038</v>
+      </c>
+      <c r="B614">
+        <v>0.6853009067807138</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B615">
+        <v>0.6946691510238964</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>39534</v>
+      </c>
+      <c r="B616">
+        <v>0.7108512696711292</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>42367</v>
+      </c>
+      <c r="B617">
+        <v>0.7022899565963362</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>41555</v>
+      </c>
+      <c r="B618">
+        <v>0.7144562244621838</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>41800</v>
+      </c>
+      <c r="B619">
+        <v>0.7085576843278671</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>40687</v>
+      </c>
+      <c r="B620">
+        <v>0.6894932147608537</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>39527</v>
+      </c>
+      <c r="B621">
+        <v>0.6694725195438106</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>40561</v>
+      </c>
+      <c r="B622">
+        <v>0.6805027958529857</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B623">
+        <v>0.7183078508679681</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>39958</v>
+      </c>
+      <c r="B624">
+        <v>0.713609699956781</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>39840</v>
+      </c>
+      <c r="B625">
+        <v>0.7209746517691201</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>39498</v>
+      </c>
+      <c r="B626">
+        <v>0.7147814725675472</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>39797</v>
+      </c>
+      <c r="B627">
+        <v>0.6698393147628902</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>40323</v>
+      </c>
+      <c r="B628">
+        <v>0.696611045160908</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>40189</v>
+      </c>
+      <c r="B629">
+        <v>0.6890037156848028</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>39584</v>
+      </c>
+      <c r="B630">
+        <v>0.5505034552421516</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>42136</v>
+      </c>
+      <c r="B631">
+        <v>0.7101918043330546</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>39847</v>
+      </c>
+      <c r="B632">
+        <v>0.5824958576738728</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>39594</v>
+      </c>
+      <c r="B633">
+        <v>0.7274272472585275</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B634">
+        <v>0.6992049315471691</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>42479</v>
+      </c>
+      <c r="B635">
+        <v>0.675195668550042</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>39763</v>
+      </c>
+      <c r="B636">
+        <v>0.6720421321018162</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>40253</v>
+      </c>
+      <c r="B637">
+        <v>0.6890720637202186</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B638">
+        <v>0.7005980970730351</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>39721</v>
+      </c>
+      <c r="B639">
+        <v>0.7214674387195715</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B640">
+        <v>0.7314049523830535</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>41135</v>
+      </c>
+      <c r="B641">
+        <v>0.6911216703945705</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>39497</v>
+      </c>
+      <c r="B642">
+        <v>0.6784846742571831</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>39804</v>
+      </c>
+      <c r="B643">
+        <v>0.6994327171506165</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>40316</v>
+      </c>
+      <c r="B644">
+        <v>0.6910325952149786</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>39521</v>
+      </c>
+      <c r="B645">
+        <v>0.5915766069815299</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>41506</v>
+      </c>
+      <c r="B646">
+        <v>0.6963776882704679</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>39825</v>
+      </c>
+      <c r="B647">
+        <v>0.6734981830218826</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>42605</v>
+      </c>
+      <c r="B648">
+        <v>0.6851918707121758</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>39557</v>
+      </c>
+      <c r="B649">
+        <v>0.6644029043356213</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>39923</v>
+      </c>
+      <c r="B650">
+        <v>0.6998514754534689</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>39463</v>
+      </c>
+      <c r="B651">
+        <v>0.5695696104110489</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>39503</v>
+      </c>
+      <c r="B652">
+        <v>0.6420079600281132</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>40421</v>
+      </c>
+      <c r="B653">
+        <v>0.6940495974851816</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>42024</v>
+      </c>
+      <c r="B654">
+        <v>0.7005005103777168</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>40883</v>
+      </c>
+      <c r="B655">
+        <v>0.7149410349487787</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>42857</v>
+      </c>
+      <c r="B656">
+        <v>0.7194015410099706</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>39714</v>
+      </c>
+      <c r="B657">
+        <v>0.7464523206249546</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B658">
+        <v>0.6944318298908907</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>40309</v>
+      </c>
+      <c r="B659">
+        <v>0.7249285606069987</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>42724</v>
+      </c>
+      <c r="B660">
+        <v>0.7174904556545353</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>42612</v>
+      </c>
+      <c r="B661">
+        <v>0.6896565017119562</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>42913</v>
+      </c>
+      <c r="B662">
+        <v>0.6718183412578649</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>40133</v>
+      </c>
+      <c r="B663">
+        <v>0.6915116554414416</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>40903</v>
+      </c>
+      <c r="B664">
+        <v>0.6043126829930444</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>40701</v>
+      </c>
+      <c r="B665">
+        <v>0.6739682800517854</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>40043</v>
+      </c>
+      <c r="B666">
+        <v>0.6420508721083518</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>39986</v>
+      </c>
+      <c r="B667">
+        <v>0.7072961473622221</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>39472</v>
+      </c>
+      <c r="B668">
+        <v>0.6699250187557708</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>42346</v>
+      </c>
+      <c r="B669">
+        <v>0.7318689076265679</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>42850</v>
+      </c>
+      <c r="B670">
+        <v>0.6850199774349023</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B671">
+        <v>0.7139447088613717</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>39634</v>
+      </c>
+      <c r="B672">
+        <v>0.6944632131122458</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>42192</v>
+      </c>
+      <c r="B673">
+        <v>0.6364266835383129</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>41891</v>
+      </c>
+      <c r="B674">
+        <v>0.7010322554597459</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>39655</v>
+      </c>
+      <c r="B675">
+        <v>0.610783136211639</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>39520</v>
+      </c>
+      <c r="B676">
+        <v>0.6566596354065138</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B677">
+        <v>0.6989991439932449</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>41492</v>
+      </c>
+      <c r="B678">
+        <v>0.6826551444309651</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>40134</v>
+      </c>
+      <c r="B679">
+        <v>0.6503405110575774</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B680">
+        <v>0.6926783769281105</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>39832</v>
+      </c>
+      <c r="B681">
+        <v>0.682096584954474</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>42500</v>
+      </c>
+      <c r="B682">
+        <v>0.685652641242219</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>42059</v>
+      </c>
+      <c r="B683">
+        <v>0.6978947872272241</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>39477</v>
+      </c>
+      <c r="B684">
+        <v>0.5891768648302016</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>40085</v>
+      </c>
+      <c r="B685">
+        <v>0.7171392162405625</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B686">
+        <v>0.7158756981183882</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B687">
+        <v>0.7129798205284851</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>40001</v>
+      </c>
+      <c r="B688">
+        <v>0.68649507536808</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>42045</v>
+      </c>
+      <c r="B689">
+        <v>0.63865781637081</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>39726</v>
+      </c>
+      <c r="B690">
+        <v>0.6687368038081807</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>41387</v>
+      </c>
+      <c r="B691">
+        <v>0.6889797416348428</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>39609</v>
+      </c>
+      <c r="B692">
+        <v>0.680981267439169</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B693">
+        <v>0.7472609356778239</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>39903</v>
+      </c>
+      <c r="B694">
+        <v>0.6797171922607945</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>41240</v>
+      </c>
+      <c r="B695">
+        <v>0.6932307732158397</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B696">
+        <v>0.6915144949387285</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>40176</v>
+      </c>
+      <c r="B697">
+        <v>0.6917868783749894</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>42535</v>
+      </c>
+      <c r="B698">
+        <v>0.7099922937036779</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B699">
+        <v>0.7234297859754952</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B700">
+        <v>0.7005250247911388</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>42493</v>
+      </c>
+      <c r="B701">
+        <v>0.6801335425878737</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>39574</v>
+      </c>
+      <c r="B702">
+        <v>0.7959823031904315</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>40491</v>
+      </c>
+      <c r="B703">
+        <v>0.6866539186185368</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B704">
+        <v>0.7030418066324846</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>39769</v>
+      </c>
+      <c r="B705">
+        <v>0.64489385446272</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>39533</v>
+      </c>
+      <c r="B706">
+        <v>0.6936988862593447</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>39861</v>
+      </c>
+      <c r="B707">
+        <v>0.6386196034981291</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>39593</v>
+      </c>
+      <c r="B708">
+        <v>0.6880613073153741</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>42388</v>
+      </c>
+      <c r="B709">
+        <v>0.7036278484688039</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>39733</v>
+      </c>
+      <c r="B710">
+        <v>0.6661458418388927</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>42206</v>
+      </c>
+      <c r="B711">
+        <v>0.7472559698029909</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>41380</v>
+      </c>
+      <c r="B712">
+        <v>0.6801736935276363</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>40715</v>
+      </c>
+      <c r="B713">
+        <v>0.735716252494809</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>39616</v>
+      </c>
+      <c r="B714">
+        <v>0.4887763694806038</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>41975</v>
+      </c>
+      <c r="B715">
+        <v>0.7427216039689851</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>41849</v>
+      </c>
+      <c r="B716">
+        <v>0.730301063473441</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>39538</v>
+      </c>
+      <c r="B717">
+        <v>0.6966089782815029</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>40589</v>
+      </c>
+      <c r="B718">
+        <v>0.7162904607159259</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>40393</v>
+      </c>
+      <c r="B719">
+        <v>0.6943931646659349</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>40169</v>
+      </c>
+      <c r="B720">
+        <v>0.6854235837241764</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>41317</v>
+      </c>
+      <c r="B721">
+        <v>0.6922488939672035</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B722">
+        <v>0.7002316208719834</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>42514</v>
+      </c>
+      <c r="B723">
+        <v>0.6291381856575631</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>39819</v>
+      </c>
+      <c r="B724">
+        <v>0.7494557169292886</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>39952</v>
+      </c>
+      <c r="B725">
+        <v>0.6684370444479761</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>39459</v>
+      </c>
+      <c r="B726">
+        <v>0.7596292843742094</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>40820</v>
+      </c>
+      <c r="B727">
+        <v>0.7043021470562962</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>40204</v>
+      </c>
+      <c r="B728">
+        <v>0.7043311524519912</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>39909</v>
+      </c>
+      <c r="B729">
+        <v>0.6479867666412751</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>39623</v>
+      </c>
+      <c r="B730">
+        <v>0.6165942857458293</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B731">
+        <v>0.7353765407065189</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1">
+        <v>39531</v>
+      </c>
+      <c r="B732">
+        <v>0.7115826850188771</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B733">
+        <v>0.6914901222722241</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B734">
+        <v>0.6994199438844694</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1">
+        <v>39502</v>
+      </c>
+      <c r="B735">
+        <v>0.6744382844270967</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1">
+        <v>40225</v>
+      </c>
+      <c r="B736">
+        <v>0.7124553191489794</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1">
+        <v>41310</v>
+      </c>
+      <c r="B737">
+        <v>0.6793213910143264</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1">
+        <v>39987</v>
+      </c>
+      <c r="B738">
+        <v>0.6639821148722249</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1">
+        <v>39881</v>
+      </c>
+      <c r="B739">
+        <v>0.6635499655137909</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1">
+        <v>42507</v>
+      </c>
+      <c r="B740">
+        <v>0.6956993577211912</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1">
+        <v>39588</v>
+      </c>
+      <c r="B741">
+        <v>0.5897137746852216</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1">
+        <v>41954</v>
+      </c>
+      <c r="B742">
+        <v>0.6713694039379812</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B743">
+        <v>0.6935160940714615</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1">
+        <v>42549</v>
+      </c>
+      <c r="B744">
+        <v>0.6464390357454276</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1">
+        <v>41877</v>
+      </c>
+      <c r="B745">
+        <v>0.7188369178942362</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1">
+        <v>39542</v>
+      </c>
+      <c r="B746">
+        <v>0.6278166070902633</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1">
+        <v>40029</v>
+      </c>
+      <c r="B747">
+        <v>0.7179031537395649</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B748">
+        <v>0.6691539578261494</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1">
+        <v>42920</v>
+      </c>
+      <c r="B749">
+        <v>0.6780337090791043</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1">
+        <v>42836</v>
+      </c>
+      <c r="B750">
+        <v>0.7163021490101363</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1">
+        <v>41366</v>
+      </c>
+      <c r="B751">
+        <v>0.6924556289746153</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1">
+        <v>41989</v>
+      </c>
+      <c r="B752">
+        <v>0.7211314755945905</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1">
+        <v>39524</v>
+      </c>
+      <c r="B753">
+        <v>0.6632997588199108</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1">
+        <v>40560</v>
+      </c>
+      <c r="B754">
+        <v>0.6988537698469297</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B755">
+        <v>0.6808379876335354</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1">
+        <v>40855</v>
+      </c>
+      <c r="B756">
+        <v>0.6984016604342095</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1">
+        <v>40022</v>
+      </c>
+      <c r="B757">
+        <v>0.6725260624977839</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1">
+        <v>40785</v>
+      </c>
+      <c r="B758">
+        <v>0.6682960384906188</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1">
+        <v>39755</v>
+      </c>
+      <c r="B759">
+        <v>0.6980786680742193</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1">
+        <v>40071</v>
+      </c>
+      <c r="B760">
+        <v>0.6741731785902666</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1">
+        <v>39833</v>
+      </c>
+      <c r="B761">
+        <v>0.7391677791228191</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>39762</v>
+      </c>
+      <c r="B762">
+        <v>0.6673190552973995</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>40154</v>
+      </c>
+      <c r="B763">
+        <v>0.6865875347490624</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>40988</v>
+      </c>
+      <c r="B764">
+        <v>0.6895019219876238</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1">
+        <v>41695</v>
+      </c>
+      <c r="B765">
+        <v>0.6901738751818738</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1">
+        <v>39796</v>
+      </c>
+      <c r="B766">
+        <v>0.6726815951065186</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B767">
+        <v>0.7169080113813534</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1">
+        <v>40567</v>
+      </c>
+      <c r="B768">
+        <v>0.7784513653984413</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1">
+        <v>42843</v>
+      </c>
+      <c r="B769">
+        <v>0.6616614847974936</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1">
+        <v>42801</v>
+      </c>
+      <c r="B770">
+        <v>0.6599491770788507</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1">
+        <v>42780</v>
+      </c>
+      <c r="B771">
+        <v>0.7051712682863875</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1">
+        <v>42402</v>
+      </c>
+      <c r="B772">
+        <v>0.7074499666153485</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1">
+        <v>43081</v>
+      </c>
+      <c r="B773">
+        <v>0.6700156868840873</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1">
+        <v>39560</v>
+      </c>
+      <c r="B774">
+        <v>0.8273091001590874</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1">
+        <v>40505</v>
+      </c>
+      <c r="B775">
+        <v>0.6870951897585498</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1">
+        <v>39468</v>
+      </c>
+      <c r="B776">
+        <v>0.7025787870161314</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1">
+        <v>42584</v>
+      </c>
+      <c r="B777">
+        <v>0.6767976060494597</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B778">
+        <v>0.6676864297308397</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1">
+        <v>42409</v>
+      </c>
+      <c r="B779">
+        <v>0.7195015091664534</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1">
+        <v>40623</v>
+      </c>
+      <c r="B780">
+        <v>0.6695061169263071</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1">
+        <v>42164</v>
+      </c>
+      <c r="B781">
+        <v>0.6314393357481503</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1">
+        <v>42143</v>
+      </c>
+      <c r="B782">
+        <v>0.7058480251717549</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1">
+        <v>39473</v>
+      </c>
+      <c r="B783">
+        <v>0.6676818667760723</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1">
+        <v>42759</v>
+      </c>
+      <c r="B784">
+        <v>0.6260668555998854</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B785">
+        <v>0.6967144620413668</v>
       </c>
     </row>
   </sheetData>
